--- a/_site/2021-01-29_COVID-19-Vaccine-Data-by-County.xlsx
+++ b/_site/2021-01-29_COVID-19-Vaccine-Data-by-County.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1573,7 +1573,7 @@
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44224</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,9 +1678,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1744,15 +1742,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>2056962</v>
+        <v>2170149</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1687025</v>
+        <v>1759812</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>369937</v>
+        <v>410337</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1821,13 +1819,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="31">
-        <v>2115</v>
+        <v>2189</v>
       </c>
       <c r="E4" s="31">
-        <v>1959</v>
+        <v>1985</v>
       </c>
       <c r="F4" s="31">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="G4" s="32">
         <v>48781</v>
@@ -1856,13 +1854,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="31">
-        <v>1769</v>
+        <v>2208</v>
       </c>
       <c r="E5" s="31">
-        <v>1192</v>
+        <v>1618</v>
       </c>
       <c r="F5" s="31">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="G5" s="32">
         <v>16893</v>
@@ -1891,13 +1889,13 @@
         <v>12200</v>
       </c>
       <c r="D6" s="31">
-        <v>6036</v>
+        <v>6248</v>
       </c>
       <c r="E6" s="31">
-        <v>5271</v>
+        <v>5357</v>
       </c>
       <c r="F6" s="31">
-        <v>765</v>
+        <v>891</v>
       </c>
       <c r="G6" s="32">
         <v>70305</v>
@@ -1926,13 +1924,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="31">
-        <v>1188</v>
+        <v>1281</v>
       </c>
       <c r="E7" s="31">
-        <v>1066</v>
+        <v>1155</v>
       </c>
       <c r="F7" s="31">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G7" s="32">
         <v>23448</v>
@@ -1961,13 +1959,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="31">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="E8" s="31">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="F8" s="31">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G8" s="32">
         <v>6824</v>
@@ -1996,13 +1994,13 @@
         <v>200</v>
       </c>
       <c r="D9" s="31">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E9" s="31">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F9" s="31">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" s="32">
         <v>1648</v>
@@ -2031,13 +2029,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="31">
-        <v>2414</v>
+        <v>2858</v>
       </c>
       <c r="E10" s="31">
-        <v>1895</v>
+        <v>2261</v>
       </c>
       <c r="F10" s="31">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="G10" s="32">
         <v>40483</v>
@@ -2066,13 +2064,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="31">
-        <v>1669</v>
+        <v>1959</v>
       </c>
       <c r="E11" s="31">
-        <v>1477</v>
+        <v>1711</v>
       </c>
       <c r="F11" s="31">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="G11" s="32">
         <v>24384</v>
@@ -2101,13 +2099,13 @@
         <v>2450</v>
       </c>
       <c r="D12" s="31">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="E12" s="31">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="F12" s="31">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G12" s="32">
         <v>5684</v>
@@ -2136,13 +2134,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="31">
-        <v>1462</v>
+        <v>1525</v>
       </c>
       <c r="E13" s="31">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="F13" s="31">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G13" s="32">
         <v>18258</v>
@@ -2171,13 +2169,13 @@
         <v>4500</v>
       </c>
       <c r="D14" s="31">
-        <v>3188</v>
+        <v>3327</v>
       </c>
       <c r="E14" s="31">
-        <v>2595</v>
+        <v>2647</v>
       </c>
       <c r="F14" s="31">
-        <v>593</v>
+        <v>680</v>
       </c>
       <c r="G14" s="32">
         <v>68916</v>
@@ -2206,13 +2204,13 @@
         <v>1575</v>
       </c>
       <c r="D15" s="31">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="E15" s="31">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="F15" s="31">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G15" s="32">
         <v>2887</v>
@@ -2241,13 +2239,13 @@
         <v>7550</v>
       </c>
       <c r="D16" s="31">
-        <v>3814</v>
+        <v>4017</v>
       </c>
       <c r="E16" s="31">
-        <v>3597</v>
+        <v>3793</v>
       </c>
       <c r="F16" s="31">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G16" s="32">
         <v>27790</v>
@@ -2276,13 +2274,13 @@
         <v>33650</v>
       </c>
       <c r="D17" s="31">
-        <v>18648</v>
+        <v>19446</v>
       </c>
       <c r="E17" s="31">
-        <v>15744</v>
+        <v>16425</v>
       </c>
       <c r="F17" s="31">
-        <v>2904</v>
+        <v>3021</v>
       </c>
       <c r="G17" s="32">
         <v>264909</v>
@@ -2311,13 +2309,13 @@
         <v>276025</v>
       </c>
       <c r="D18" s="31">
-        <v>152866</v>
+        <v>158906</v>
       </c>
       <c r="E18" s="31">
-        <v>113458</v>
+        <v>117174</v>
       </c>
       <c r="F18" s="31">
-        <v>39408</v>
+        <v>41732</v>
       </c>
       <c r="G18" s="32">
         <v>1649172</v>
@@ -2346,13 +2344,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="31">
-        <v>1455</v>
+        <v>1540</v>
       </c>
       <c r="E19" s="31">
-        <v>1284</v>
+        <v>1344</v>
       </c>
       <c r="F19" s="31">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G19" s="32">
         <v>9721</v>
@@ -2381,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20" s="31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F20" s="31">
         <v>2</v>
@@ -2416,13 +2414,13 @@
         <v>2000</v>
       </c>
       <c r="D21" s="31">
-        <v>888</v>
+        <v>936</v>
       </c>
       <c r="E21" s="31">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="F21" s="31">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G21" s="32">
         <v>14388</v>
@@ -2451,13 +2449,13 @@
         <v>10050</v>
       </c>
       <c r="D22" s="31">
-        <v>4015</v>
+        <v>4187</v>
       </c>
       <c r="E22" s="31">
-        <v>2960</v>
+        <v>3036</v>
       </c>
       <c r="F22" s="31">
-        <v>1055</v>
+        <v>1151</v>
       </c>
       <c r="G22" s="32">
         <v>75454</v>
@@ -2486,13 +2484,13 @@
         <v>16900</v>
       </c>
       <c r="D23" s="31">
-        <v>24603</v>
+        <v>25396</v>
       </c>
       <c r="E23" s="31">
-        <v>19498</v>
+        <v>19908</v>
       </c>
       <c r="F23" s="31">
-        <v>5105</v>
+        <v>5488</v>
       </c>
       <c r="G23" s="32">
         <v>299211</v>
@@ -2521,13 +2519,13 @@
         <v>18025</v>
       </c>
       <c r="D24" s="31">
-        <v>8762</v>
+        <v>9752</v>
       </c>
       <c r="E24" s="31">
-        <v>7551</v>
+        <v>8356</v>
       </c>
       <c r="F24" s="31">
-        <v>1211</v>
+        <v>1396</v>
       </c>
       <c r="G24" s="32">
         <v>188279</v>
@@ -2556,13 +2554,13 @@
         <v>1000</v>
       </c>
       <c r="D25" s="31">
-        <v>785</v>
+        <v>840</v>
       </c>
       <c r="E25" s="31">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="F25" s="31">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G25" s="32">
         <v>7247</v>
@@ -2591,13 +2589,13 @@
         <v>100</v>
       </c>
       <c r="D26" s="31">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E26" s="31">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F26" s="31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" s="32">
         <v>1289</v>
@@ -2626,10 +2624,10 @@
         <v>600</v>
       </c>
       <c r="D27" s="31">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E27" s="31">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="F27" s="31">
         <v>62</v>
@@ -2661,13 +2659,13 @@
         <v>1700</v>
       </c>
       <c r="D28" s="31">
-        <v>1601</v>
+        <v>1649</v>
       </c>
       <c r="E28" s="31">
-        <v>1101</v>
+        <v>1143</v>
       </c>
       <c r="F28" s="31">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G28" s="32">
         <v>31624</v>
@@ -2696,13 +2694,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="31">
+        <v>812</v>
+      </c>
+      <c r="E29" s="31">
         <v>683</v>
       </c>
-      <c r="E29" s="31">
-        <v>576</v>
-      </c>
       <c r="F29" s="31">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G29" s="32">
         <v>14273</v>
@@ -2731,13 +2729,13 @@
         <v>3975</v>
       </c>
       <c r="D30" s="31">
-        <v>1796</v>
+        <v>1934</v>
       </c>
       <c r="E30" s="31">
-        <v>1491</v>
+        <v>1540</v>
       </c>
       <c r="F30" s="31">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="G30" s="32">
         <v>39401</v>
@@ -2766,13 +2764,13 @@
         <v>1400</v>
       </c>
       <c r="D31" s="31">
-        <v>1772</v>
+        <v>1869</v>
       </c>
       <c r="E31" s="31">
-        <v>1441</v>
+        <v>1505</v>
       </c>
       <c r="F31" s="31">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G31" s="32">
         <v>35286</v>
@@ -2801,13 +2799,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="31">
-        <v>1339</v>
+        <v>1472</v>
       </c>
       <c r="E32" s="31">
-        <v>1117</v>
+        <v>1178</v>
       </c>
       <c r="F32" s="31">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G32" s="32">
         <v>17873</v>
@@ -2836,13 +2834,13 @@
         <v>700</v>
       </c>
       <c r="D33" s="31">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="E33" s="31">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="F33" s="31">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G33" s="32">
         <v>11212</v>
@@ -2871,13 +2869,13 @@
         <v>50250</v>
       </c>
       <c r="D34" s="31">
-        <v>37612</v>
+        <v>39849</v>
       </c>
       <c r="E34" s="31">
-        <v>30629</v>
+        <v>31759</v>
       </c>
       <c r="F34" s="31">
-        <v>6983</v>
+        <v>8090</v>
       </c>
       <c r="G34" s="32">
         <v>319351</v>
@@ -2906,13 +2904,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="31">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="E35" s="31">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="F35" s="31">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G35" s="32">
         <v>10475</v>
@@ -2941,13 +2939,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="E36" s="31">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="F36" s="31">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G36" s="32">
         <v>4650</v>
@@ -2976,13 +2974,13 @@
         <v>300</v>
       </c>
       <c r="D37" s="31">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="E37" s="31">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="F37" s="31">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G37" s="32">
         <v>24308</v>
@@ -3011,13 +3009,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="31">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="E38" s="31">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="F38" s="31">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G38" s="32">
         <v>5315</v>
@@ -3046,13 +3044,13 @@
         <v>5400</v>
       </c>
       <c r="D39" s="31">
-        <v>2105</v>
+        <v>2223</v>
       </c>
       <c r="E39" s="31">
-        <v>1868</v>
+        <v>1895</v>
       </c>
       <c r="F39" s="31">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="G39" s="32">
         <v>33361</v>
@@ -3081,13 +3079,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="31">
-        <v>2810</v>
+        <v>2970</v>
       </c>
       <c r="E40" s="31">
-        <v>2431</v>
+        <v>2504</v>
       </c>
       <c r="F40" s="31">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="G40" s="32">
         <v>40660</v>
@@ -3116,13 +3114,13 @@
         <v>1100</v>
       </c>
       <c r="D41" s="31">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E41" s="31">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F41" s="31">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G41" s="32">
         <v>5784</v>
@@ -3151,13 +3149,13 @@
         <v>2250</v>
       </c>
       <c r="D42" s="31">
-        <v>1203</v>
+        <v>1349</v>
       </c>
       <c r="E42" s="31">
-        <v>1064</v>
+        <v>1172</v>
       </c>
       <c r="F42" s="31">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G42" s="32">
         <v>8023</v>
@@ -3186,13 +3184,13 @@
         <v>100</v>
       </c>
       <c r="D43" s="31">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E43" s="31">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F43" s="31">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G43" s="32">
         <v>2524</v>
@@ -3221,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="31">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E44" s="31">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F44" s="31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="32">
         <v>2653</v>
@@ -3256,13 +3254,13 @@
         <v>600</v>
       </c>
       <c r="D45" s="31">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="E45" s="31">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F45" s="31">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G45" s="32">
         <v>6728</v>
@@ -3291,13 +3289,13 @@
         <v>61275</v>
       </c>
       <c r="D46" s="31">
-        <v>58058</v>
+        <v>60943</v>
       </c>
       <c r="E46" s="31">
-        <v>47117</v>
+        <v>49019</v>
       </c>
       <c r="F46" s="31">
-        <v>10941</v>
+        <v>11924</v>
       </c>
       <c r="G46" s="32">
         <v>841758</v>
@@ -3326,13 +3324,13 @@
         <v>300</v>
       </c>
       <c r="D47" s="31">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E47" s="31">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F47" s="31">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G47" s="32">
         <v>2451</v>
@@ -3361,13 +3359,13 @@
         <v>1600</v>
       </c>
       <c r="D48" s="31">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="E48" s="31">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="F48" s="31">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G48" s="32">
         <v>16882</v>
@@ -3396,13 +3394,13 @@
         <v>9700</v>
       </c>
       <c r="D49" s="31">
-        <v>8723</v>
+        <v>9329</v>
       </c>
       <c r="E49" s="31">
-        <v>6607</v>
+        <v>7009</v>
       </c>
       <c r="F49" s="31">
-        <v>2116</v>
+        <v>2320</v>
       </c>
       <c r="G49" s="32">
         <v>122316</v>
@@ -3431,13 +3429,13 @@
         <v>1775</v>
       </c>
       <c r="D50" s="31">
-        <v>1464</v>
+        <v>1493</v>
       </c>
       <c r="E50" s="31">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="F50" s="31">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G50" s="32">
         <v>10333</v>
@@ -3466,10 +3464,10 @@
         <v>100</v>
       </c>
       <c r="D51" s="31">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="E51" s="31">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F51" s="31">
         <v>24</v>
@@ -3501,13 +3499,13 @@
         <v>1900</v>
       </c>
       <c r="D52" s="31">
-        <v>1626</v>
+        <v>1669</v>
       </c>
       <c r="E52" s="31">
-        <v>1431</v>
+        <v>1458</v>
       </c>
       <c r="F52" s="31">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G52" s="32">
         <v>32061</v>
@@ -3536,13 +3534,13 @@
         <v>3750</v>
       </c>
       <c r="D53" s="31">
-        <v>2837</v>
+        <v>3074</v>
       </c>
       <c r="E53" s="31">
-        <v>2543</v>
+        <v>2720</v>
       </c>
       <c r="F53" s="31">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="G53" s="32">
         <v>61429</v>
@@ -3606,13 +3604,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="31">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="E55" s="31">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="F55" s="31">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G55" s="32">
         <v>4793</v>
@@ -3641,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="31">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="E56" s="31">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F56" s="31">
         <v>10</v>
@@ -3676,13 +3674,13 @@
         <v>1175</v>
       </c>
       <c r="D57" s="31">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="E57" s="31">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F57" s="31">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G57" s="32">
         <v>5020</v>
@@ -3711,13 +3709,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="31">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E58" s="31">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F58" s="31">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G58" s="32">
         <v>1820</v>
@@ -3746,13 +3744,13 @@
         <v>1475</v>
       </c>
       <c r="D59" s="31">
-        <v>746</v>
+        <v>807</v>
       </c>
       <c r="E59" s="31">
-        <v>731</v>
+        <v>790</v>
       </c>
       <c r="F59" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G59" s="32">
         <v>5258</v>
@@ -3781,13 +3779,13 @@
         <v>299125</v>
       </c>
       <c r="D60" s="31">
-        <v>150100</v>
+        <v>157421</v>
       </c>
       <c r="E60" s="31">
-        <v>124256</v>
+        <v>129660</v>
       </c>
       <c r="F60" s="31">
-        <v>25844</v>
+        <v>27761</v>
       </c>
       <c r="G60" s="32">
         <v>2114319</v>
@@ -3816,13 +3814,13 @@
         <v>600</v>
       </c>
       <c r="D61" s="31">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E61" s="31">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F61" s="31">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G61" s="32">
         <v>10637</v>
@@ -3851,13 +3849,13 @@
         <v>1700</v>
       </c>
       <c r="D62" s="31">
-        <v>1102</v>
+        <v>1246</v>
       </c>
       <c r="E62" s="31">
-        <v>1005</v>
+        <v>1042</v>
       </c>
       <c r="F62" s="31">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="G62" s="32">
         <v>13191</v>
@@ -3886,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="31">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="E63" s="31">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F63" s="31">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G63" s="32">
         <v>4362</v>
@@ -3921,13 +3919,13 @@
         <v>54125</v>
       </c>
       <c r="D64" s="31">
-        <v>31962</v>
+        <v>33868</v>
       </c>
       <c r="E64" s="31">
-        <v>25664</v>
+        <v>26949</v>
       </c>
       <c r="F64" s="31">
-        <v>6298</v>
+        <v>6919</v>
       </c>
       <c r="G64" s="32">
         <v>740206</v>
@@ -3956,13 +3954,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="31">
-        <v>645</v>
+        <v>756</v>
       </c>
       <c r="E65" s="31">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="F65" s="31">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G65" s="32">
         <v>17638</v>
@@ -3991,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="31">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E66" s="31">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F66" s="31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="32">
         <v>1878</v>
@@ -4026,13 +4024,13 @@
         <v>2750</v>
       </c>
       <c r="D67" s="31">
-        <v>1415</v>
+        <v>1531</v>
       </c>
       <c r="E67" s="31">
-        <v>1309</v>
+        <v>1405</v>
       </c>
       <c r="F67" s="31">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G67" s="32">
         <v>8764</v>
@@ -4061,13 +4059,13 @@
         <v>100</v>
       </c>
       <c r="D68" s="31">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E68" s="31">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F68" s="31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G68" s="32">
         <v>2774</v>
@@ -4096,13 +4094,13 @@
         <v>300</v>
       </c>
       <c r="D69" s="31">
-        <v>879</v>
+        <v>930</v>
       </c>
       <c r="E69" s="31">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="F69" s="31">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G69" s="32">
         <v>9023</v>
@@ -4131,13 +4129,13 @@
         <v>900</v>
       </c>
       <c r="D70" s="31">
-        <v>994</v>
+        <v>1109</v>
       </c>
       <c r="E70" s="31">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="F70" s="31">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="G70" s="32">
         <v>14611</v>
@@ -4166,13 +4164,13 @@
         <v>19900</v>
       </c>
       <c r="D71" s="31">
-        <v>11821</v>
+        <v>12420</v>
       </c>
       <c r="E71" s="31">
-        <v>9789</v>
+        <v>10316</v>
       </c>
       <c r="F71" s="31">
-        <v>2032</v>
+        <v>2104</v>
       </c>
       <c r="G71" s="32">
         <v>140862</v>
@@ -4201,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="31">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="31">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F72" s="31">
         <v>22</v>
@@ -4236,13 +4234,13 @@
         <v>108125</v>
       </c>
       <c r="D73" s="31">
-        <v>87567</v>
+        <v>90572</v>
       </c>
       <c r="E73" s="31">
-        <v>70501</v>
+        <v>73122</v>
       </c>
       <c r="F73" s="31">
-        <v>17066</v>
+        <v>17450</v>
       </c>
       <c r="G73" s="32">
         <v>664164</v>
@@ -4271,13 +4269,13 @@
         <v>4800</v>
       </c>
       <c r="D74" s="31">
-        <v>8056</v>
+        <v>8393</v>
       </c>
       <c r="E74" s="31">
-        <v>6579</v>
+        <v>6789</v>
       </c>
       <c r="F74" s="31">
-        <v>1477</v>
+        <v>1604</v>
       </c>
       <c r="G74" s="32">
         <v>140959</v>
@@ -4306,13 +4304,13 @@
         <v>1000</v>
       </c>
       <c r="D75" s="31">
-        <v>1549</v>
+        <v>1775</v>
       </c>
       <c r="E75" s="31">
-        <v>1312</v>
+        <v>1497</v>
       </c>
       <c r="F75" s="31">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="G75" s="32">
         <v>34043</v>
@@ -4341,13 +4339,13 @@
         <v>2650</v>
       </c>
       <c r="D76" s="31">
-        <v>991</v>
+        <v>1078</v>
       </c>
       <c r="E76" s="31">
-        <v>950</v>
+        <v>1008</v>
       </c>
       <c r="F76" s="31">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G76" s="32">
         <v>13589</v>
@@ -4376,13 +4374,13 @@
         <v>4650</v>
       </c>
       <c r="D77" s="31">
-        <v>2654</v>
+        <v>2850</v>
       </c>
       <c r="E77" s="31">
-        <v>2126</v>
+        <v>2288</v>
       </c>
       <c r="F77" s="31">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="G77" s="32">
         <v>28488</v>
@@ -4411,13 +4409,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="31">
-        <v>1089</v>
+        <v>1122</v>
       </c>
       <c r="E78" s="31">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="F78" s="31">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G78" s="32">
         <v>21033</v>
@@ -4446,13 +4444,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="31">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="E79" s="31">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="F79" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79" s="32">
         <v>3226</v>
@@ -4481,13 +4479,13 @@
         <v>200</v>
       </c>
       <c r="D80" s="31">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="E80" s="31">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F80" s="31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G80" s="32">
         <v>4468</v>
@@ -4516,10 +4514,10 @@
         <v>100</v>
       </c>
       <c r="D81" s="31">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E81" s="31">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F81" s="31">
         <v>17</v>
@@ -4551,13 +4549,13 @@
         <v>50575</v>
       </c>
       <c r="D82" s="31">
-        <v>57205</v>
+        <v>60696</v>
       </c>
       <c r="E82" s="31">
-        <v>47520</v>
+        <v>50127</v>
       </c>
       <c r="F82" s="31">
-        <v>9685</v>
+        <v>10569</v>
       </c>
       <c r="G82" s="32">
         <v>681745</v>
@@ -4586,13 +4584,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="31">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E83" s="31">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F83" s="31">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G83" s="32">
         <v>8474</v>
@@ -4621,13 +4619,13 @@
         <v>1100</v>
       </c>
       <c r="D84" s="31">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="E84" s="31">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="F84" s="31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G84" s="32">
         <v>15926</v>
@@ -4656,13 +4654,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="31">
-        <v>1690</v>
+        <v>1840</v>
       </c>
       <c r="E85" s="31">
-        <v>1399</v>
+        <v>1547</v>
       </c>
       <c r="F85" s="31">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G85" s="32">
         <v>16062</v>
@@ -4691,13 +4689,13 @@
         <v>1200</v>
       </c>
       <c r="D86" s="31">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="E86" s="31">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F86" s="31">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="G86" s="32">
         <v>16010</v>
@@ -4726,13 +4724,13 @@
         <v>38225</v>
       </c>
       <c r="D87" s="31">
-        <v>33862</v>
+        <v>34549</v>
       </c>
       <c r="E87" s="31">
-        <v>26538</v>
+        <v>26824</v>
       </c>
       <c r="F87" s="31">
-        <v>7324</v>
+        <v>7725</v>
       </c>
       <c r="G87" s="32">
         <v>284584</v>
@@ -4761,13 +4759,13 @@
         <v>100</v>
       </c>
       <c r="D88" s="31">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E88" s="31">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F88" s="31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G88" s="32">
         <v>5585</v>
@@ -4796,13 +4794,13 @@
         <v>4300</v>
       </c>
       <c r="D89" s="31">
-        <v>2281</v>
+        <v>2429</v>
       </c>
       <c r="E89" s="31">
-        <v>1911</v>
+        <v>1998</v>
       </c>
       <c r="F89" s="31">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="G89" s="32">
         <v>21871</v>
@@ -4831,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="31">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E90" s="31">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F90" s="31">
         <v>5</v>
@@ -4866,13 +4864,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="31">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="E91" s="31">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="F91" s="31">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G91" s="32">
         <v>6430</v>
@@ -4901,13 +4899,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="31">
-        <v>1078</v>
+        <v>1132</v>
       </c>
       <c r="E92" s="31">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="F92" s="31">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G92" s="32">
         <v>16466</v>
@@ -4936,13 +4934,13 @@
         <v>1300</v>
       </c>
       <c r="D93" s="31">
-        <v>1253</v>
+        <v>1324</v>
       </c>
       <c r="E93" s="31">
-        <v>1158</v>
+        <v>1210</v>
       </c>
       <c r="F93" s="31">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G93" s="32">
         <v>19064</v>
@@ -4971,13 +4969,13 @@
         <v>21800</v>
       </c>
       <c r="D94" s="31">
-        <v>9171</v>
+        <v>9771</v>
       </c>
       <c r="E94" s="31">
-        <v>7506</v>
+        <v>7943</v>
       </c>
       <c r="F94" s="31">
-        <v>1665</v>
+        <v>1828</v>
       </c>
       <c r="G94" s="32">
         <v>105377</v>
@@ -5006,13 +5004,13 @@
         <v>16050</v>
       </c>
       <c r="D95" s="31">
-        <v>6979</v>
+        <v>7219</v>
       </c>
       <c r="E95" s="31">
-        <v>5292</v>
+        <v>5419</v>
       </c>
       <c r="F95" s="31">
-        <v>1687</v>
+        <v>1800</v>
       </c>
       <c r="G95" s="32">
         <v>97920</v>
@@ -5041,13 +5039,13 @@
         <v>1200</v>
       </c>
       <c r="D96" s="31">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="E96" s="31">
-        <v>913</v>
+        <v>949</v>
       </c>
       <c r="F96" s="31">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="G96" s="32">
         <v>23414</v>
@@ -5076,13 +5074,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="31">
-        <v>7216</v>
+        <v>7499</v>
       </c>
       <c r="E97" s="31">
-        <v>5182</v>
+        <v>5333</v>
       </c>
       <c r="F97" s="31">
-        <v>2034</v>
+        <v>2166</v>
       </c>
       <c r="G97" s="32">
         <v>136431</v>
@@ -5111,13 +5109,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="31">
-        <v>2134</v>
+        <v>2252</v>
       </c>
       <c r="E98" s="31">
-        <v>1781</v>
+        <v>1837</v>
       </c>
       <c r="F98" s="31">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="G98" s="32">
         <v>24936</v>
@@ -5146,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="31">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E99" s="31">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F99" s="31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G99" s="32">
         <v>2606</v>
@@ -5181,13 +5179,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="31">
-        <v>1806</v>
+        <v>1959</v>
       </c>
       <c r="E100" s="31">
-        <v>1601</v>
+        <v>1627</v>
       </c>
       <c r="F100" s="31">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="G100" s="32">
         <v>6553</v>
@@ -5216,13 +5214,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="31">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="E101" s="31">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="F101" s="31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G101" s="32">
         <v>4417</v>
@@ -5251,13 +5249,13 @@
         <v>500</v>
       </c>
       <c r="D102" s="31">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E102" s="31">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F102" s="31">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G102" s="32">
         <v>3008</v>
@@ -5286,13 +5284,13 @@
         <v>4700</v>
       </c>
       <c r="D103" s="31">
-        <v>2752</v>
+        <v>3072</v>
       </c>
       <c r="E103" s="31">
-        <v>2487</v>
+        <v>2746</v>
       </c>
       <c r="F103" s="31">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="G103" s="32">
         <v>45896</v>
@@ -5321,13 +5319,13 @@
         <v>571325</v>
       </c>
       <c r="D104" s="31">
-        <v>326020</v>
+        <v>340474</v>
       </c>
       <c r="E104" s="31">
-        <v>269691</v>
+        <v>277188</v>
       </c>
       <c r="F104" s="31">
-        <v>56329</v>
+        <v>63286</v>
       </c>
       <c r="G104" s="32">
         <v>3866923</v>
@@ -5356,13 +5354,13 @@
         <v>2800</v>
       </c>
       <c r="D105" s="31">
-        <v>2449</v>
+        <v>2545</v>
       </c>
       <c r="E105" s="31">
-        <v>2099</v>
+        <v>2143</v>
       </c>
       <c r="F105" s="31">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G105" s="32">
         <v>52923</v>
@@ -5391,13 +5389,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="31">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="E106" s="31">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="F106" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G106" s="32">
         <v>5042</v>
@@ -5426,13 +5424,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="31">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="E107" s="31">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="F107" s="31">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G107" s="32">
         <v>5119</v>
@@ -5461,13 +5459,13 @@
         <v>18125</v>
       </c>
       <c r="D108" s="31">
-        <v>14119</v>
+        <v>15128</v>
       </c>
       <c r="E108" s="31">
-        <v>11734</v>
+        <v>12299</v>
       </c>
       <c r="F108" s="31">
-        <v>2385</v>
+        <v>2829</v>
       </c>
       <c r="G108" s="32">
         <v>196828</v>
@@ -5496,13 +5494,13 @@
         <v>800</v>
       </c>
       <c r="D109" s="31">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="E109" s="31">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F109" s="31">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="G109" s="32">
         <v>3429</v>
@@ -5531,13 +5529,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="31">
-        <v>3324</v>
+        <v>3513</v>
       </c>
       <c r="E110" s="31">
-        <v>2751</v>
+        <v>2882</v>
       </c>
       <c r="F110" s="31">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="G110" s="32">
         <v>66406</v>
@@ -5566,13 +5564,13 @@
         <v>107750</v>
       </c>
       <c r="D111" s="31">
-        <v>52965</v>
+        <v>57389</v>
       </c>
       <c r="E111" s="31">
-        <v>42851</v>
+        <v>45698</v>
       </c>
       <c r="F111" s="31">
-        <v>10114</v>
+        <v>11691</v>
       </c>
       <c r="G111" s="32">
         <v>650228</v>
@@ -5601,13 +5599,13 @@
         <v>1100</v>
       </c>
       <c r="D112" s="31">
-        <v>1921</v>
+        <v>2058</v>
       </c>
       <c r="E112" s="31">
-        <v>1700</v>
+        <v>1776</v>
       </c>
       <c r="F112" s="31">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="G112" s="32">
         <v>28116</v>
@@ -5636,13 +5634,13 @@
         <v>900</v>
       </c>
       <c r="D113" s="31">
-        <v>1282</v>
+        <v>1364</v>
       </c>
       <c r="E113" s="31">
-        <v>1025</v>
+        <v>1082</v>
       </c>
       <c r="F113" s="31">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G113" s="32">
         <v>18921</v>
@@ -5671,13 +5669,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="31">
-        <v>1994</v>
+        <v>2274</v>
       </c>
       <c r="E114" s="31">
-        <v>1715</v>
+        <v>1846</v>
       </c>
       <c r="F114" s="31">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="G114" s="32">
         <v>48946</v>
@@ -5706,13 +5704,13 @@
         <v>2400</v>
       </c>
       <c r="D115" s="31">
-        <v>2012</v>
+        <v>2040</v>
       </c>
       <c r="E115" s="31">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="F115" s="31">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G115" s="32">
         <v>29544</v>
@@ -5741,13 +5739,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="31">
-        <v>1399</v>
+        <v>1462</v>
       </c>
       <c r="E116" s="31">
-        <v>1237</v>
+        <v>1258</v>
       </c>
       <c r="F116" s="31">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="G116" s="32">
         <v>18491</v>
@@ -5776,13 +5774,13 @@
         <v>2700</v>
       </c>
       <c r="D117" s="31">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="E117" s="31">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="F117" s="31">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G117" s="32">
         <v>33215</v>
@@ -5811,10 +5809,10 @@
         <v>100</v>
       </c>
       <c r="D118" s="31">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E118" s="31">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F118" s="31">
         <v>13</v>
@@ -5846,13 +5844,13 @@
         <v>7050</v>
       </c>
       <c r="D119" s="31">
-        <v>5679</v>
+        <v>6007</v>
       </c>
       <c r="E119" s="31">
-        <v>3847</v>
+        <v>3920</v>
       </c>
       <c r="F119" s="31">
-        <v>1832</v>
+        <v>2087</v>
       </c>
       <c r="G119" s="32">
         <v>76397</v>
@@ -5881,13 +5879,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="31">
-        <v>1302</v>
+        <v>1351</v>
       </c>
       <c r="E120" s="31">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="F120" s="31">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G120" s="32">
         <v>16691</v>
@@ -5916,13 +5914,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="31">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E121" s="31">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F121" s="31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G121" s="32">
         <v>1280</v>
@@ -5951,13 +5949,13 @@
         <v>500</v>
       </c>
       <c r="D122" s="31">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="E122" s="31">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F122" s="31">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G122" s="32">
         <v>7087</v>
@@ -5986,13 +5984,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="31">
-        <v>1219</v>
+        <v>1297</v>
       </c>
       <c r="E123" s="31">
-        <v>1013</v>
+        <v>1044</v>
       </c>
       <c r="F123" s="31">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="G123" s="32">
         <v>12317</v>
@@ -6021,13 +6019,13 @@
         <v>5100</v>
       </c>
       <c r="D124" s="31">
-        <v>1818</v>
+        <v>2116</v>
       </c>
       <c r="E124" s="31">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="F124" s="31">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G124" s="32">
         <v>28138</v>
@@ -6056,10 +6054,10 @@
         <v>100</v>
       </c>
       <c r="D125" s="31">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E125" s="31">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F125" s="31">
         <v>12</v>
@@ -6091,13 +6089,13 @@
         <v>22900</v>
       </c>
       <c r="D126" s="31">
-        <v>8261</v>
+        <v>8695</v>
       </c>
       <c r="E126" s="31">
-        <v>7419</v>
+        <v>7742</v>
       </c>
       <c r="F126" s="31">
-        <v>842</v>
+        <v>953</v>
       </c>
       <c r="G126" s="32">
         <v>204766</v>
@@ -6126,10 +6124,10 @@
         <v>100</v>
       </c>
       <c r="D127" s="31">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="E127" s="31">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="F127" s="31">
         <v>55</v>
@@ -6161,13 +6159,13 @@
         <v>3250</v>
       </c>
       <c r="D128" s="31">
-        <v>2948</v>
+        <v>3117</v>
       </c>
       <c r="E128" s="31">
-        <v>2551</v>
+        <v>2686</v>
       </c>
       <c r="F128" s="31">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="G128" s="32">
         <v>32000</v>
@@ -6196,13 +6194,13 @@
         <v>3500</v>
       </c>
       <c r="D129" s="31">
-        <v>7596</v>
+        <v>8178</v>
       </c>
       <c r="E129" s="31">
-        <v>6298</v>
+        <v>6735</v>
       </c>
       <c r="F129" s="31">
-        <v>1298</v>
+        <v>1443</v>
       </c>
       <c r="G129" s="32">
         <v>134667</v>
@@ -6231,13 +6229,13 @@
         <v>400</v>
       </c>
       <c r="D130" s="31">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="E130" s="31">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="F130" s="31">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G130" s="32">
         <v>16850</v>
@@ -6266,13 +6264,13 @@
         <v>1300</v>
       </c>
       <c r="D131" s="31">
-        <v>649</v>
+        <v>860</v>
       </c>
       <c r="E131" s="31">
-        <v>602</v>
+        <v>808</v>
       </c>
       <c r="F131" s="31">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G131" s="32">
         <v>12394</v>
@@ -6301,13 +6299,13 @@
         <v>3750</v>
       </c>
       <c r="D132" s="31">
-        <v>6134</v>
+        <v>6400</v>
       </c>
       <c r="E132" s="31">
-        <v>4776</v>
+        <v>4927</v>
       </c>
       <c r="F132" s="31">
-        <v>1358</v>
+        <v>1473</v>
       </c>
       <c r="G132" s="32">
         <v>99179</v>
@@ -6336,13 +6334,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="31">
-        <v>3605</v>
+        <v>3716</v>
       </c>
       <c r="E133" s="31">
-        <v>2620</v>
+        <v>2692</v>
       </c>
       <c r="F133" s="31">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="G133" s="32">
         <v>38571</v>
@@ -6371,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="31">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E134" s="31">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F134" s="31">
         <v>1</v>
@@ -6406,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="31">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E135" s="31">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F135" s="31">
         <v>0</v>
@@ -6441,13 +6439,13 @@
         <v>3200</v>
       </c>
       <c r="D136" s="31">
-        <v>2872</v>
+        <v>2970</v>
       </c>
       <c r="E136" s="31">
-        <v>2024</v>
+        <v>2107</v>
       </c>
       <c r="F136" s="31">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="G136" s="32">
         <v>43315</v>
@@ -6476,13 +6474,13 @@
         <v>300</v>
       </c>
       <c r="D137" s="31">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E137" s="31">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F137" s="31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G137" s="32">
         <v>3576</v>
@@ -6511,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" s="31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F138" s="31">
         <v>2</v>
@@ -6546,10 +6544,10 @@
         <v>100</v>
       </c>
       <c r="D139" s="31">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="E139" s="31">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="F139" s="31">
         <v>2</v>
@@ -6581,13 +6579,13 @@
         <v>5050</v>
       </c>
       <c r="D140" s="31">
-        <v>3323</v>
+        <v>4498</v>
       </c>
       <c r="E140" s="31">
-        <v>3109</v>
+        <v>4244</v>
       </c>
       <c r="F140" s="31">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="G140" s="32">
         <v>25029</v>
@@ -6616,13 +6614,13 @@
         <v>300</v>
       </c>
       <c r="D141" s="31">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="E141" s="31">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="F141" s="31">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G141" s="32">
         <v>3076</v>
@@ -6651,10 +6649,10 @@
         <v>2150</v>
       </c>
       <c r="D142" s="31">
-        <v>1118</v>
+        <v>1285</v>
       </c>
       <c r="E142" s="31">
-        <v>1092</v>
+        <v>1259</v>
       </c>
       <c r="F142" s="31">
         <v>26</v>
@@ -6686,13 +6684,13 @@
         <v>3700</v>
       </c>
       <c r="D143" s="31">
-        <v>2720</v>
+        <v>3196</v>
       </c>
       <c r="E143" s="31">
-        <v>2377</v>
+        <v>2579</v>
       </c>
       <c r="F143" s="31">
-        <v>343</v>
+        <v>617</v>
       </c>
       <c r="G143" s="32">
         <v>39931</v>
@@ -6721,13 +6719,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="31">
-        <v>1256</v>
+        <v>1285</v>
       </c>
       <c r="E144" s="31">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="F144" s="31">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G144" s="32">
         <v>9751</v>
@@ -6756,13 +6754,13 @@
         <v>300</v>
       </c>
       <c r="D145" s="31">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="E145" s="31">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="F145" s="31">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G145" s="32">
         <v>17203</v>
@@ -6791,13 +6789,13 @@
         <v>1900</v>
       </c>
       <c r="D146" s="31">
-        <v>1292</v>
+        <v>1400</v>
       </c>
       <c r="E146" s="31">
-        <v>1100</v>
+        <v>1142</v>
       </c>
       <c r="F146" s="31">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="G146" s="32">
         <v>16378</v>
@@ -6826,13 +6824,13 @@
         <v>600</v>
       </c>
       <c r="D147" s="31">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="E147" s="31">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="F147" s="31">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G147" s="32">
         <v>14026</v>
@@ -6861,13 +6859,13 @@
         <v>600</v>
       </c>
       <c r="D148" s="31">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="E148" s="31">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F148" s="31">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G148" s="32">
         <v>14157</v>
@@ -6896,13 +6894,13 @@
         <v>5450</v>
       </c>
       <c r="D149" s="31">
-        <v>2680</v>
+        <v>2864</v>
       </c>
       <c r="E149" s="31">
-        <v>2494</v>
+        <v>2583</v>
       </c>
       <c r="F149" s="31">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="G149" s="32">
         <v>67078</v>
@@ -6931,13 +6929,13 @@
         <v>1500</v>
       </c>
       <c r="D150" s="31">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="E150" s="31">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="F150" s="31">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G150" s="32">
         <v>18913</v>
@@ -6966,13 +6964,13 @@
         <v>100</v>
       </c>
       <c r="D151" s="31">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="E151" s="31">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F151" s="31">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G151" s="32">
         <v>2873</v>
@@ -7001,13 +6999,13 @@
         <v>200</v>
       </c>
       <c r="D152" s="31">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="E152" s="31">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="F152" s="31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G152" s="32">
         <v>9816</v>
@@ -7036,13 +7034,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="31">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="E153" s="31">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="F153" s="31">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G153" s="32">
         <v>16584</v>
@@ -7071,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E154" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F154" s="31">
         <v>0</v>
@@ -7106,13 +7104,13 @@
         <v>73900</v>
       </c>
       <c r="D155" s="31">
-        <v>41420</v>
+        <v>43722</v>
       </c>
       <c r="E155" s="31">
-        <v>33633</v>
+        <v>34844</v>
       </c>
       <c r="F155" s="31">
-        <v>7787</v>
+        <v>8878</v>
       </c>
       <c r="G155" s="32">
         <v>254605</v>
@@ -7141,13 +7139,13 @@
         <v>200</v>
       </c>
       <c r="D156" s="31">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E156" s="31">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F156" s="31">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G156" s="32">
         <v>4386</v>
@@ -7176,13 +7174,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="31">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E157" s="31">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F157" s="31">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G157" s="32">
         <v>11642</v>
@@ -7211,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="31">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E158" s="31">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F158" s="31">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G158" s="32">
         <v>8491</v>
@@ -7246,10 +7244,10 @@
         <v>600</v>
       </c>
       <c r="D159" s="31">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E159" s="31">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F159" s="31">
         <v>35</v>
@@ -7281,13 +7279,13 @@
         <v>200</v>
       </c>
       <c r="D160" s="31">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="E160" s="31">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F160" s="31">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G160" s="32">
         <v>3218</v>
@@ -7316,13 +7314,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="31">
-        <v>934</v>
+        <v>1009</v>
       </c>
       <c r="E161" s="31">
-        <v>889</v>
+        <v>961</v>
       </c>
       <c r="F161" s="31">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G161" s="32">
         <v>28934</v>
@@ -7351,13 +7349,13 @@
         <v>4800</v>
       </c>
       <c r="D162" s="31">
-        <v>3006</v>
+        <v>3070</v>
       </c>
       <c r="E162" s="31">
-        <v>2522</v>
+        <v>2578</v>
       </c>
       <c r="F162" s="31">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G162" s="32">
         <v>44442</v>
@@ -7386,13 +7384,13 @@
         <v>600</v>
       </c>
       <c r="D163" s="31">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E163" s="31">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F163" s="31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G163" s="32">
         <v>6974</v>
@@ -7421,13 +7419,13 @@
         <v>23700</v>
       </c>
       <c r="D164" s="31">
-        <v>15782</v>
+        <v>16801</v>
       </c>
       <c r="E164" s="31">
-        <v>13971</v>
+        <v>14655</v>
       </c>
       <c r="F164" s="31">
-        <v>1811</v>
+        <v>2146</v>
       </c>
       <c r="G164" s="32">
         <v>198197</v>
@@ -7456,13 +7454,13 @@
         <v>100</v>
       </c>
       <c r="D165" s="31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E165" s="31">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F165" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G165" s="32">
         <v>671</v>
@@ -7491,13 +7489,13 @@
         <v>1400</v>
       </c>
       <c r="D166" s="31">
-        <v>2719</v>
+        <v>2886</v>
       </c>
       <c r="E166" s="31">
-        <v>2157</v>
+        <v>2274</v>
       </c>
       <c r="F166" s="31">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="G166" s="32">
         <v>40921</v>
@@ -7526,13 +7524,13 @@
         <v>100</v>
       </c>
       <c r="D167" s="31">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="E167" s="31">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F167" s="31">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G167" s="32">
         <v>1807</v>
@@ -7561,13 +7559,13 @@
         <v>16750</v>
       </c>
       <c r="D168" s="31">
-        <v>8678</v>
+        <v>9462</v>
       </c>
       <c r="E168" s="31">
-        <v>6534</v>
+        <v>7245</v>
       </c>
       <c r="F168" s="31">
-        <v>2144</v>
+        <v>2217</v>
       </c>
       <c r="G168" s="32">
         <v>144930</v>
@@ -7596,13 +7594,13 @@
         <v>1800</v>
       </c>
       <c r="D169" s="31">
-        <v>1361</v>
+        <v>1485</v>
       </c>
       <c r="E169" s="31">
-        <v>1291</v>
+        <v>1381</v>
       </c>
       <c r="F169" s="31">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G169" s="32">
         <v>19423</v>
@@ -7631,13 +7629,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="31">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E170" s="31">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F170" s="31">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G170" s="32">
         <v>3922</v>
@@ -7666,13 +7664,13 @@
         <v>600</v>
       </c>
       <c r="D171" s="31">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E171" s="31">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F171" s="31">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G171" s="32">
         <v>8166</v>
@@ -7701,13 +7699,13 @@
         <v>1275</v>
       </c>
       <c r="D172" s="31">
-        <v>1465</v>
+        <v>1545</v>
       </c>
       <c r="E172" s="31">
-        <v>1379</v>
+        <v>1439</v>
       </c>
       <c r="F172" s="31">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G172" s="32">
         <v>15356</v>
@@ -7736,13 +7734,13 @@
         <v>47850</v>
       </c>
       <c r="D173" s="31">
-        <v>23389</v>
+        <v>24623</v>
       </c>
       <c r="E173" s="31">
-        <v>19548</v>
+        <v>20056</v>
       </c>
       <c r="F173" s="31">
-        <v>3841</v>
+        <v>4567</v>
       </c>
       <c r="G173" s="32">
         <v>494493</v>
@@ -7771,13 +7769,13 @@
         <v>1100</v>
       </c>
       <c r="D174" s="31">
-        <v>1495</v>
+        <v>1596</v>
       </c>
       <c r="E174" s="31">
-        <v>1309</v>
+        <v>1372</v>
       </c>
       <c r="F174" s="31">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="G174" s="32">
         <v>16000</v>
@@ -7806,13 +7804,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="31">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="E175" s="31">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="F175" s="31">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G175" s="32">
         <v>9910</v>
@@ -7841,13 +7839,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="31">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E176" s="31">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F176" s="31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G176" s="32">
         <v>986</v>
@@ -7876,13 +7874,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="31">
-        <v>5495</v>
+        <v>6148</v>
       </c>
       <c r="E177" s="31">
-        <v>4784</v>
+        <v>5321</v>
       </c>
       <c r="F177" s="31">
-        <v>711</v>
+        <v>827</v>
       </c>
       <c r="G177" s="32">
         <v>52134</v>
@@ -7911,13 +7909,13 @@
         <v>4000</v>
       </c>
       <c r="D178" s="31">
-        <v>2446</v>
+        <v>3012</v>
       </c>
       <c r="E178" s="31">
-        <v>2187</v>
+        <v>2660</v>
       </c>
       <c r="F178" s="31">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="G178" s="32">
         <v>37845</v>
@@ -7946,13 +7944,13 @@
         <v>400</v>
       </c>
       <c r="D179" s="31">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="E179" s="31">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="F179" s="31">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G179" s="32">
         <v>11330</v>
@@ -7981,13 +7979,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="31">
-        <v>1609</v>
+        <v>1709</v>
       </c>
       <c r="E180" s="31">
-        <v>1483</v>
+        <v>1572</v>
       </c>
       <c r="F180" s="31">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G180" s="32">
         <v>12129</v>
@@ -8016,13 +8014,13 @@
         <v>48525</v>
       </c>
       <c r="D181" s="31">
-        <v>25670</v>
+        <v>26754</v>
       </c>
       <c r="E181" s="31">
-        <v>18628</v>
+        <v>19406</v>
       </c>
       <c r="F181" s="31">
-        <v>7042</v>
+        <v>7348</v>
       </c>
       <c r="G181" s="32">
         <v>301743</v>
@@ -8051,13 +8049,13 @@
         <v>900</v>
       </c>
       <c r="D182" s="31">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="E182" s="31">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F182" s="31">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G182" s="32">
         <v>8466</v>
@@ -8086,13 +8084,13 @@
         <v>100</v>
       </c>
       <c r="D183" s="31">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E183" s="31">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F183" s="31">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G183" s="32">
         <v>1797</v>
@@ -8121,13 +8119,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="31">
-        <v>1867</v>
+        <v>1948</v>
       </c>
       <c r="E184" s="31">
-        <v>1708</v>
+        <v>1768</v>
       </c>
       <c r="F184" s="31">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G184" s="32">
         <v>68992</v>
@@ -8156,13 +8154,13 @@
         <v>1300</v>
       </c>
       <c r="D185" s="31">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="E185" s="31">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="F185" s="31">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="G185" s="32">
         <v>22350</v>
@@ -8191,13 +8189,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="31">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="E186" s="31">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="F186" s="31">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G186" s="32">
         <v>19380</v>
@@ -8226,13 +8224,13 @@
         <v>9200</v>
       </c>
       <c r="D187" s="31">
-        <v>7940</v>
+        <v>8503</v>
       </c>
       <c r="E187" s="31">
-        <v>6957</v>
+        <v>7299</v>
       </c>
       <c r="F187" s="31">
-        <v>983</v>
+        <v>1204</v>
       </c>
       <c r="G187" s="32">
         <v>109678</v>
@@ -8261,13 +8259,13 @@
         <v>500</v>
       </c>
       <c r="D188" s="31">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="E188" s="31">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F188" s="31">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G188" s="32">
         <v>6852</v>
@@ -8296,13 +8294,13 @@
         <v>1300</v>
       </c>
       <c r="D189" s="31">
-        <v>1122</v>
+        <v>1188</v>
       </c>
       <c r="E189" s="31">
-        <v>701</v>
+        <v>765</v>
       </c>
       <c r="F189" s="31">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G189" s="32">
         <v>12932</v>
@@ -8331,13 +8329,13 @@
         <v>2800</v>
       </c>
       <c r="D190" s="31">
-        <v>1915</v>
+        <v>2014</v>
       </c>
       <c r="E190" s="31">
-        <v>1768</v>
+        <v>1808</v>
       </c>
       <c r="F190" s="31">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="G190" s="32">
         <v>40850</v>
@@ -8366,13 +8364,13 @@
         <v>60050</v>
       </c>
       <c r="D191" s="31">
-        <v>14864</v>
+        <v>15928</v>
       </c>
       <c r="E191" s="31">
-        <v>12664</v>
+        <v>13098</v>
       </c>
       <c r="F191" s="31">
-        <v>2200</v>
+        <v>2830</v>
       </c>
       <c r="G191" s="32">
         <v>95716</v>
@@ -8401,13 +8399,13 @@
         <v>400</v>
       </c>
       <c r="D192" s="31">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="E192" s="31">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F192" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G192" s="32">
         <v>4516</v>
@@ -8436,13 +8434,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="31">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E193" s="31">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F193" s="31">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G193" s="32">
         <v>9415</v>
@@ -8471,13 +8469,13 @@
         <v>4600</v>
       </c>
       <c r="D194" s="31">
-        <v>23099</v>
+        <v>24519</v>
       </c>
       <c r="E194" s="31">
-        <v>19208</v>
+        <v>19657</v>
       </c>
       <c r="F194" s="31">
-        <v>3891</v>
+        <v>4862</v>
       </c>
       <c r="G194" s="32">
         <v>110179</v>
@@ -8506,13 +8504,13 @@
         <v>200</v>
       </c>
       <c r="D195" s="31">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="E195" s="31">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="F195" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G195" s="32">
         <v>3272</v>
@@ -8541,13 +8539,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="31">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E196" s="31">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F196" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G196" s="32">
         <v>2778</v>
@@ -8576,13 +8574,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="31">
-        <v>915</v>
+        <v>961</v>
       </c>
       <c r="E197" s="31">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="F197" s="31">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G197" s="32">
         <v>10218</v>
@@ -8611,13 +8609,13 @@
         <v>2450</v>
       </c>
       <c r="D198" s="31">
-        <v>1763</v>
+        <v>2030</v>
       </c>
       <c r="E198" s="31">
-        <v>1736</v>
+        <v>1958</v>
       </c>
       <c r="F198" s="31">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G198" s="32">
         <v>12796</v>
@@ -8646,13 +8644,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="31">
-        <v>822</v>
+        <v>963</v>
       </c>
       <c r="E199" s="31">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="F199" s="31">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="G199" s="32">
         <v>6038</v>
@@ -8681,13 +8679,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="31">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E200" s="31">
         <v>53</v>
       </c>
       <c r="F200" s="31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G200" s="32">
         <v>794</v>
@@ -8716,13 +8714,13 @@
         <v>700</v>
       </c>
       <c r="D201" s="31">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="E201" s="31">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F201" s="31">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G201" s="32">
         <v>13592</v>
@@ -8751,13 +8749,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="31">
-        <v>5611</v>
+        <v>5942</v>
       </c>
       <c r="E202" s="31">
-        <v>4549</v>
+        <v>4765</v>
       </c>
       <c r="F202" s="31">
-        <v>1062</v>
+        <v>1177</v>
       </c>
       <c r="G202" s="32">
         <v>83981</v>
@@ -8786,13 +8784,13 @@
         <v>1300</v>
       </c>
       <c r="D203" s="31">
-        <v>1083</v>
+        <v>1175</v>
       </c>
       <c r="E203" s="31">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="F203" s="31">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="G203" s="32">
         <v>8755</v>
@@ -8821,13 +8819,13 @@
         <v>1100</v>
       </c>
       <c r="D204" s="31">
-        <v>1743</v>
+        <v>1796</v>
       </c>
       <c r="E204" s="31">
-        <v>1471</v>
+        <v>1512</v>
       </c>
       <c r="F204" s="31">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G204" s="32">
         <v>42667</v>
@@ -8856,13 +8854,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="31">
-        <v>929</v>
+        <v>973</v>
       </c>
       <c r="E205" s="31">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="F205" s="31">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G205" s="32">
         <v>8194</v>
@@ -8891,13 +8889,13 @@
         <v>800</v>
       </c>
       <c r="D206" s="31">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E206" s="31">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F206" s="31">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G206" s="32">
         <v>6879</v>
@@ -8926,13 +8924,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="31">
-        <v>997</v>
+        <v>1089</v>
       </c>
       <c r="E207" s="31">
-        <v>920</v>
+        <v>993</v>
       </c>
       <c r="F207" s="31">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G207" s="32">
         <v>23313</v>
@@ -8961,13 +8959,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="31">
-        <v>2877</v>
+        <v>3047</v>
       </c>
       <c r="E208" s="31">
-        <v>2310</v>
+        <v>2468</v>
       </c>
       <c r="F208" s="31">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G208" s="32">
         <v>55627</v>
@@ -8996,13 +8994,13 @@
         <v>200</v>
       </c>
       <c r="D209" s="31">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E209" s="31">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F209" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" s="32">
         <v>4798</v>
@@ -9031,13 +9029,13 @@
         <v>200</v>
       </c>
       <c r="D210" s="31">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E210" s="31">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F210" s="31">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G210" s="32">
         <v>2580</v>
@@ -9066,13 +9064,13 @@
         <v>1875</v>
       </c>
       <c r="D211" s="31">
-        <v>793</v>
+        <v>859</v>
       </c>
       <c r="E211" s="31">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c r="F211" s="31">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G211" s="32">
         <v>14395</v>
@@ -9101,13 +9099,13 @@
         <v>100</v>
       </c>
       <c r="D212" s="31">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E212" s="31">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F212" s="31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G212" s="32">
         <v>2713</v>
@@ -9136,13 +9134,13 @@
         <v>1200</v>
       </c>
       <c r="D213" s="31">
-        <v>794</v>
+        <v>864</v>
       </c>
       <c r="E213" s="31">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="F213" s="31">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G213" s="32">
         <v>19620</v>
@@ -9171,10 +9169,10 @@
         <v>100</v>
       </c>
       <c r="D214" s="31">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E214" s="31">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F214" s="31">
         <v>9</v>
@@ -9206,13 +9204,13 @@
         <v>47600</v>
       </c>
       <c r="D215" s="31">
-        <v>21465</v>
+        <v>22423</v>
       </c>
       <c r="E215" s="31">
-        <v>16358</v>
+        <v>17080</v>
       </c>
       <c r="F215" s="31">
-        <v>5107</v>
+        <v>5343</v>
       </c>
       <c r="G215" s="32">
         <v>186509</v>
@@ -9241,13 +9239,13 @@
         <v>300</v>
       </c>
       <c r="D216" s="31">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E216" s="31">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F216" s="31">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G216" s="32">
         <v>7605</v>
@@ -9276,13 +9274,13 @@
         <v>3800</v>
       </c>
       <c r="D217" s="31">
-        <v>3419</v>
+        <v>3766</v>
       </c>
       <c r="E217" s="31">
-        <v>2555</v>
+        <v>2654</v>
       </c>
       <c r="F217" s="31">
-        <v>864</v>
+        <v>1112</v>
       </c>
       <c r="G217" s="32">
         <v>47076</v>
@@ -9311,13 +9309,13 @@
         <v>300</v>
       </c>
       <c r="D218" s="31">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="E218" s="31">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F218" s="31">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G218" s="32">
         <v>7628</v>
@@ -9346,10 +9344,10 @@
         <v>100</v>
       </c>
       <c r="D219" s="31">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E219" s="31">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F219" s="31">
         <v>5</v>
@@ -9381,10 +9379,10 @@
         <v>200</v>
       </c>
       <c r="D220" s="31">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E220" s="31">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F220" s="31">
         <v>5</v>
@@ -9416,13 +9414,13 @@
         <v>200</v>
       </c>
       <c r="D221" s="31">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E221" s="31">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F221" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G221" s="32">
         <v>3494</v>
@@ -9451,13 +9449,13 @@
         <v>200</v>
       </c>
       <c r="D222" s="31">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="E222" s="31">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="F222" s="31">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G222" s="32">
         <v>5828</v>
@@ -9486,13 +9484,13 @@
         <v>277725</v>
       </c>
       <c r="D223" s="31">
-        <v>111208</v>
+        <v>117089</v>
       </c>
       <c r="E223" s="31">
-        <v>97596</v>
+        <v>101545</v>
       </c>
       <c r="F223" s="31">
-        <v>13612</v>
+        <v>15544</v>
       </c>
       <c r="G223" s="32">
         <v>1697191</v>
@@ -9521,13 +9519,13 @@
         <v>16875</v>
       </c>
       <c r="D224" s="31">
-        <v>12397</v>
+        <v>13315</v>
       </c>
       <c r="E224" s="31">
-        <v>8899</v>
+        <v>9488</v>
       </c>
       <c r="F224" s="31">
-        <v>3498</v>
+        <v>3827</v>
       </c>
       <c r="G224" s="32">
         <v>109707</v>
@@ -9556,13 +9554,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="31">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="E225" s="31">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="F225" s="31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G225" s="32">
         <v>870</v>
@@ -9591,13 +9589,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="31">
-        <v>1128</v>
+        <v>1371</v>
       </c>
       <c r="E226" s="31">
-        <v>844</v>
+        <v>1054</v>
       </c>
       <c r="F226" s="31">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G226" s="32">
         <v>9981</v>
@@ -9626,13 +9624,13 @@
         <v>300</v>
       </c>
       <c r="D227" s="31">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E227" s="31">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="F227" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G227" s="32">
         <v>1235</v>
@@ -9661,13 +9659,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="31">
-        <v>1557</v>
+        <v>1611</v>
       </c>
       <c r="E228" s="31">
-        <v>1115</v>
+        <v>1161</v>
       </c>
       <c r="F228" s="31">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G228" s="32">
         <v>24866</v>
@@ -9696,13 +9694,13 @@
         <v>16950</v>
       </c>
       <c r="D229" s="31">
-        <v>11353</v>
+        <v>11574</v>
       </c>
       <c r="E229" s="31">
-        <v>8818</v>
+        <v>8992</v>
       </c>
       <c r="F229" s="31">
-        <v>2535</v>
+        <v>2582</v>
       </c>
       <c r="G229" s="32">
         <v>99401</v>
@@ -9731,13 +9729,13 @@
         <v>150550</v>
       </c>
       <c r="D230" s="31">
-        <v>85374</v>
+        <v>89526</v>
       </c>
       <c r="E230" s="31">
-        <v>68912</v>
+        <v>71035</v>
       </c>
       <c r="F230" s="31">
-        <v>16462</v>
+        <v>18491</v>
       </c>
       <c r="G230" s="32">
         <v>1055964</v>
@@ -9766,13 +9764,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="31">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="E231" s="31">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F231" s="31">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G231" s="32">
         <v>11811</v>
@@ -9801,13 +9799,13 @@
         <v>1200</v>
       </c>
       <c r="D232" s="31">
-        <v>1267</v>
+        <v>1343</v>
       </c>
       <c r="E232" s="31">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="F232" s="31">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G232" s="32">
         <v>17475</v>
@@ -9836,13 +9834,13 @@
         <v>600</v>
       </c>
       <c r="D233" s="31">
-        <v>1389</v>
+        <v>1459</v>
       </c>
       <c r="E233" s="31">
-        <v>1084</v>
+        <v>1135</v>
       </c>
       <c r="F233" s="31">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G233" s="32">
         <v>33807</v>
@@ -9871,10 +9869,10 @@
         <v>400</v>
       </c>
       <c r="D234" s="31">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="E234" s="31">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="F234" s="31">
         <v>127</v>
@@ -9906,13 +9904,13 @@
         <v>3750</v>
       </c>
       <c r="D235" s="31">
-        <v>3074</v>
+        <v>3306</v>
       </c>
       <c r="E235" s="31">
-        <v>2669</v>
+        <v>2896</v>
       </c>
       <c r="F235" s="31">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G235" s="32">
         <v>21966</v>
@@ -9941,13 +9939,13 @@
         <v>4050</v>
       </c>
       <c r="D236" s="31">
-        <v>2939</v>
+        <v>2972</v>
       </c>
       <c r="E236" s="31">
-        <v>2506</v>
+        <v>2537</v>
       </c>
       <c r="F236" s="31">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G236" s="32">
         <v>36171</v>
@@ -9976,13 +9974,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="31">
-        <v>2826</v>
+        <v>3001</v>
       </c>
       <c r="E237" s="31">
-        <v>2330</v>
+        <v>2407</v>
       </c>
       <c r="F237" s="31">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="G237" s="32">
         <v>44585</v>
@@ -10011,13 +10009,13 @@
         <v>9175</v>
       </c>
       <c r="D238" s="31">
-        <v>6464</v>
+        <v>7647</v>
       </c>
       <c r="E238" s="31">
-        <v>4961</v>
+        <v>6061</v>
       </c>
       <c r="F238" s="31">
-        <v>1503</v>
+        <v>1586</v>
       </c>
       <c r="G238" s="32">
         <v>78170</v>
@@ -10046,13 +10044,13 @@
         <v>4000</v>
       </c>
       <c r="D239" s="31">
-        <v>2621</v>
+        <v>2756</v>
       </c>
       <c r="E239" s="31">
-        <v>2369</v>
+        <v>2435</v>
       </c>
       <c r="F239" s="31">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="G239" s="32">
         <v>63001</v>
@@ -10081,13 +10079,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="31">
-        <v>1405</v>
+        <v>1510</v>
       </c>
       <c r="E240" s="31">
-        <v>1259</v>
+        <v>1316</v>
       </c>
       <c r="F240" s="31">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="G240" s="32">
         <v>41643</v>
@@ -10116,13 +10114,13 @@
         <v>400</v>
       </c>
       <c r="D241" s="31">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="E241" s="31">
-        <v>362</v>
+        <v>467</v>
       </c>
       <c r="F241" s="31">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G241" s="32">
         <v>10349</v>
@@ -10151,13 +10149,13 @@
         <v>6200</v>
       </c>
       <c r="D242" s="31">
-        <v>1820</v>
+        <v>1963</v>
       </c>
       <c r="E242" s="31">
-        <v>1667</v>
+        <v>1732</v>
       </c>
       <c r="F242" s="31">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="G242" s="32">
         <v>28511</v>
@@ -10186,13 +10184,13 @@
         <v>33500</v>
       </c>
       <c r="D243" s="31">
-        <v>16923</v>
+        <v>18521</v>
       </c>
       <c r="E243" s="31">
-        <v>13831</v>
+        <v>14813</v>
       </c>
       <c r="F243" s="31">
-        <v>3092</v>
+        <v>3708</v>
       </c>
       <c r="G243" s="32">
         <v>206120</v>
@@ -10221,13 +10219,13 @@
         <v>2100</v>
       </c>
       <c r="D244" s="31">
-        <v>1328</v>
+        <v>1426</v>
       </c>
       <c r="E244" s="31">
-        <v>1213</v>
+        <v>1299</v>
       </c>
       <c r="F244" s="31">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G244" s="32">
         <v>32707</v>
@@ -10256,13 +10254,13 @@
         <v>400</v>
       </c>
       <c r="D245" s="31">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="E245" s="31">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F245" s="31">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G245" s="32">
         <v>4507</v>
@@ -10291,13 +10289,13 @@
         <v>21600</v>
       </c>
       <c r="D246" s="31">
-        <v>12463</v>
+        <v>12893</v>
       </c>
       <c r="E246" s="31">
-        <v>10252</v>
+        <v>10541</v>
       </c>
       <c r="F246" s="31">
-        <v>2211</v>
+        <v>2352</v>
       </c>
       <c r="G246" s="32">
         <v>106967</v>
@@ -10326,13 +10324,13 @@
         <v>4700</v>
       </c>
       <c r="D247" s="31">
-        <v>1929</v>
+        <v>2066</v>
       </c>
       <c r="E247" s="31">
-        <v>1420</v>
+        <v>1537</v>
       </c>
       <c r="F247" s="31">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="G247" s="32">
         <v>10374</v>
@@ -10361,13 +10359,13 @@
         <v>500</v>
       </c>
       <c r="D248" s="31">
-        <v>1494</v>
+        <v>1555</v>
       </c>
       <c r="E248" s="31">
-        <v>1383</v>
+        <v>1412</v>
       </c>
       <c r="F248" s="31">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G248" s="32">
         <v>17301</v>
@@ -10396,13 +10394,13 @@
         <v>44250</v>
       </c>
       <c r="D249" s="31">
-        <v>34678</v>
+        <v>36530</v>
       </c>
       <c r="E249" s="31">
-        <v>27927</v>
+        <v>28574</v>
       </c>
       <c r="F249" s="31">
-        <v>6751</v>
+        <v>7956</v>
       </c>
       <c r="G249" s="32">
         <v>476807</v>
@@ -10431,13 +10429,13 @@
         <v>3400</v>
       </c>
       <c r="D250" s="31">
-        <v>3393</v>
+        <v>3586</v>
       </c>
       <c r="E250" s="31">
-        <v>2536</v>
+        <v>2634</v>
       </c>
       <c r="F250" s="31">
-        <v>857</v>
+        <v>952</v>
       </c>
       <c r="G250" s="32">
         <v>42688</v>
@@ -10466,13 +10464,13 @@
         <v>200</v>
       </c>
       <c r="D251" s="31">
-        <v>304</v>
+        <v>552</v>
       </c>
       <c r="E251" s="31">
-        <v>271</v>
+        <v>516</v>
       </c>
       <c r="F251" s="31">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G251" s="32">
         <v>6884</v>
@@ -10501,13 +10499,13 @@
         <v>5550</v>
       </c>
       <c r="D252" s="31">
-        <v>4407</v>
+        <v>4473</v>
       </c>
       <c r="E252" s="31">
-        <v>3412</v>
+        <v>3443</v>
       </c>
       <c r="F252" s="31">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="G252" s="32">
         <v>53226</v>
@@ -10536,13 +10534,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="31">
-        <v>2382</v>
+        <v>2505</v>
       </c>
       <c r="E253" s="31">
-        <v>2017</v>
+        <v>2114</v>
       </c>
       <c r="F253" s="31">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="G253" s="32">
         <v>37555</v>
@@ -10571,13 +10569,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="31">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="E254" s="31">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F254" s="31">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="G254" s="32">
         <v>6757</v>
@@ -10606,13 +10604,13 @@
         <v>1900</v>
       </c>
       <c r="D255" s="31">
-        <v>950</v>
+        <v>1075</v>
       </c>
       <c r="E255" s="31">
-        <v>839</v>
+        <v>908</v>
       </c>
       <c r="F255" s="31">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="G255" s="32">
         <v>14738</v>
@@ -10641,13 +10639,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="31">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="E256" s="31">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="F256" s="31">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G256" s="32">
         <v>10303</v>
@@ -10676,13 +10674,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="31">
-        <v>901</v>
+        <v>1002</v>
       </c>
       <c r="E257" s="31">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="F257" s="31">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G257" s="32">
         <v>9244</v>
@@ -10711,13 +10709,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="31">
-        <v>205243</v>
+        <v>217896</v>
       </c>
       <c r="E258" s="31">
-        <v>172799</v>
+        <v>181646</v>
       </c>
       <c r="F258" s="31">
-        <v>32444</v>
+        <v>36250</v>
       </c>
       <c r="G258" s="32"/>
       <c r="H258" s="32"/>
@@ -10791,13 +10789,13 @@
         <v>298</v>
       </c>
       <c r="D2" s="31">
-        <v>35529</v>
+        <v>36360</v>
       </c>
       <c r="E2" s="31">
-        <v>24424</v>
+        <v>24718</v>
       </c>
       <c r="F2" s="31">
-        <v>11105</v>
+        <v>11642</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10811,13 +10809,13 @@
         <v>299</v>
       </c>
       <c r="D3" s="31">
-        <v>23310</v>
+        <v>24066</v>
       </c>
       <c r="E3" s="31">
-        <v>17163</v>
+        <v>17562</v>
       </c>
       <c r="F3" s="31">
-        <v>6147</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10831,13 +10829,13 @@
         <v>297</v>
       </c>
       <c r="D4" s="31">
-        <v>65751</v>
+        <v>68456</v>
       </c>
       <c r="E4" s="31">
-        <v>47964</v>
+        <v>49290</v>
       </c>
       <c r="F4" s="31">
-        <v>17787</v>
+        <v>19166</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10851,13 +10849,13 @@
         <v>301</v>
       </c>
       <c r="D5" s="31">
-        <v>136926</v>
+        <v>142087</v>
       </c>
       <c r="E5" s="31">
-        <v>95493</v>
+        <v>98076</v>
       </c>
       <c r="F5" s="31">
-        <v>41433</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10871,13 +10869,13 @@
         <v>300</v>
       </c>
       <c r="D6" s="31">
-        <v>41557</v>
+        <v>43319</v>
       </c>
       <c r="E6" s="31">
-        <v>32577</v>
+        <v>33836</v>
       </c>
       <c r="F6" s="31">
-        <v>8980</v>
+        <v>9483</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10891,13 +10889,13 @@
         <v>286</v>
       </c>
       <c r="D7" s="31">
-        <v>224515</v>
+        <v>235316</v>
       </c>
       <c r="E7" s="31">
-        <v>170201</v>
+        <v>175946</v>
       </c>
       <c r="F7" s="31">
-        <v>54314</v>
+        <v>59370</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10912,13 +10910,13 @@
         <v>298</v>
       </c>
       <c r="D8" s="31">
-        <v>15457</v>
+        <v>15894</v>
       </c>
       <c r="E8" s="31">
-        <v>11464</v>
+        <v>11689</v>
       </c>
       <c r="F8" s="31">
-        <v>3993</v>
+        <v>4205</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10933,13 +10931,13 @@
         <v>299</v>
       </c>
       <c r="D9" s="31">
-        <v>17710</v>
+        <v>18371</v>
       </c>
       <c r="E9" s="31">
-        <v>13465</v>
+        <v>13878</v>
       </c>
       <c r="F9" s="31">
-        <v>4245</v>
+        <v>4493</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10954,13 +10952,13 @@
         <v>297</v>
       </c>
       <c r="D10" s="31">
-        <v>29033</v>
+        <v>30598</v>
       </c>
       <c r="E10" s="31">
-        <v>23083</v>
+        <v>24055</v>
       </c>
       <c r="F10" s="31">
-        <v>5950</v>
+        <v>6543</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10975,13 +10973,13 @@
         <v>301</v>
       </c>
       <c r="D11" s="31">
-        <v>80254</v>
+        <v>84252</v>
       </c>
       <c r="E11" s="31">
-        <v>60883</v>
+        <v>63226</v>
       </c>
       <c r="F11" s="31">
-        <v>19371</v>
+        <v>21026</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10996,13 +10994,13 @@
         <v>300</v>
       </c>
       <c r="D12" s="31">
-        <v>23003</v>
+        <v>24218</v>
       </c>
       <c r="E12" s="31">
-        <v>18928</v>
+        <v>19841</v>
       </c>
       <c r="F12" s="31">
-        <v>4075</v>
+        <v>4377</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11017,13 +11015,13 @@
         <v>286</v>
       </c>
       <c r="D13" s="31">
-        <v>133499</v>
+        <v>142007</v>
       </c>
       <c r="E13" s="31">
-        <v>108381</v>
+        <v>113636</v>
       </c>
       <c r="F13" s="31">
-        <v>25118</v>
+        <v>28371</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11038,13 +11036,13 @@
         <v>298</v>
       </c>
       <c r="D14" s="31">
-        <v>11762</v>
+        <v>12167</v>
       </c>
       <c r="E14" s="31">
-        <v>10675</v>
+        <v>10958</v>
       </c>
       <c r="F14" s="31">
-        <v>1087</v>
+        <v>1209</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11059,13 +11057,13 @@
         <v>299</v>
       </c>
       <c r="D15" s="31">
-        <v>11140</v>
+        <v>11835</v>
       </c>
       <c r="E15" s="31">
-        <v>10380</v>
+        <v>10982</v>
       </c>
       <c r="F15" s="31">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11080,13 +11078,13 @@
         <v>297</v>
       </c>
       <c r="D16" s="31">
-        <v>17646</v>
+        <v>18963</v>
       </c>
       <c r="E16" s="31">
-        <v>16343</v>
+        <v>17300</v>
       </c>
       <c r="F16" s="31">
-        <v>1303</v>
+        <v>1663</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11101,13 +11099,13 @@
         <v>301</v>
       </c>
       <c r="D17" s="31">
-        <v>96115</v>
+        <v>102001</v>
       </c>
       <c r="E17" s="31">
-        <v>89395</v>
+        <v>93575</v>
       </c>
       <c r="F17" s="31">
-        <v>6720</v>
+        <v>8426</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11122,13 +11120,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="31">
-        <v>22465</v>
+        <v>23625</v>
       </c>
       <c r="E18" s="31">
-        <v>19991</v>
+        <v>20921</v>
       </c>
       <c r="F18" s="31">
-        <v>2474</v>
+        <v>2704</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11143,13 +11141,13 @@
         <v>286</v>
       </c>
       <c r="D19" s="31">
-        <v>131694</v>
+        <v>142341</v>
       </c>
       <c r="E19" s="31">
-        <v>121063</v>
+        <v>129352</v>
       </c>
       <c r="F19" s="31">
-        <v>10631</v>
+        <v>12989</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11164,13 +11162,13 @@
         <v>298</v>
       </c>
       <c r="D20" s="31">
-        <v>2402</v>
+        <v>2495</v>
       </c>
       <c r="E20" s="31">
-        <v>2263</v>
+        <v>2330</v>
       </c>
       <c r="F20" s="31">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11185,13 +11183,13 @@
         <v>299</v>
       </c>
       <c r="D21" s="31">
-        <v>2325</v>
+        <v>2459</v>
       </c>
       <c r="E21" s="31">
-        <v>2287</v>
+        <v>2409</v>
       </c>
       <c r="F21" s="31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11206,13 +11204,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="31">
-        <v>3677</v>
+        <v>3963</v>
       </c>
       <c r="E22" s="31">
-        <v>3530</v>
+        <v>3749</v>
       </c>
       <c r="F22" s="31">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11227,13 +11225,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="31">
-        <v>27727</v>
+        <v>29218</v>
       </c>
       <c r="E23" s="31">
-        <v>26486</v>
+        <v>27528</v>
       </c>
       <c r="F23" s="31">
-        <v>1241</v>
+        <v>1690</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11248,13 +11246,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="31">
-        <v>24213</v>
+        <v>25460</v>
       </c>
       <c r="E24" s="31">
-        <v>20539</v>
+        <v>21638</v>
       </c>
       <c r="F24" s="31">
-        <v>3674</v>
+        <v>3822</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11269,13 +11267,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="31">
-        <v>47740</v>
+        <v>51315</v>
       </c>
       <c r="E25" s="31">
-        <v>44017</v>
+        <v>46608</v>
       </c>
       <c r="F25" s="31">
-        <v>3723</v>
+        <v>4707</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11290,13 +11288,13 @@
         <v>298</v>
       </c>
       <c r="D26" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="30"/>
     </row>
@@ -11332,10 +11330,10 @@
         <v>297</v>
       </c>
       <c r="D28" s="31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="31">
         <v>4</v>
@@ -11353,13 +11351,13 @@
         <v>301</v>
       </c>
       <c r="D29" s="31">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E29" s="31">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F29" s="31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11374,13 +11372,13 @@
         <v>300</v>
       </c>
       <c r="D30" s="31">
+        <v>18</v>
+      </c>
+      <c r="E30" s="31">
         <v>15</v>
       </c>
-      <c r="E30" s="31">
-        <v>14</v>
-      </c>
       <c r="F30" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="30"/>
     </row>
@@ -11395,10 +11393,10 @@
         <v>286</v>
       </c>
       <c r="D31" s="31">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="E31" s="31">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="F31" s="31">
         <v>41</v>
@@ -11416,13 +11414,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="31">
-        <v>23145</v>
+        <v>23764</v>
       </c>
       <c r="E32" s="31">
-        <v>16109</v>
+        <v>16330</v>
       </c>
       <c r="F32" s="31">
-        <v>7036</v>
+        <v>7434</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11437,13 +11435,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="31">
-        <v>9968</v>
+        <v>10307</v>
       </c>
       <c r="E33" s="31">
-        <v>7442</v>
+        <v>7623</v>
       </c>
       <c r="F33" s="31">
-        <v>2526</v>
+        <v>2684</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11458,13 +11456,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="31">
-        <v>33979</v>
+        <v>35696</v>
       </c>
       <c r="E34" s="31">
-        <v>25322</v>
+        <v>26200</v>
       </c>
       <c r="F34" s="31">
-        <v>8657</v>
+        <v>9496</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11479,13 +11477,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="31">
-        <v>68112</v>
+        <v>71518</v>
       </c>
       <c r="E35" s="31">
-        <v>49093</v>
+        <v>50666</v>
       </c>
       <c r="F35" s="31">
-        <v>19019</v>
+        <v>20852</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11500,13 +11498,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="31">
-        <v>19880</v>
+        <v>20764</v>
       </c>
       <c r="E36" s="31">
-        <v>15480</v>
+        <v>16076</v>
       </c>
       <c r="F36" s="31">
-        <v>4400</v>
+        <v>4688</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11521,13 +11519,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="31">
-        <v>132879</v>
+        <v>139888</v>
       </c>
       <c r="E37" s="31">
-        <v>101852</v>
+        <v>105645</v>
       </c>
       <c r="F37" s="31">
-        <v>31027</v>
+        <v>34243</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11542,13 +11540,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="31">
-        <v>10846</v>
+        <v>11184</v>
       </c>
       <c r="E38" s="31">
-        <v>8306</v>
+        <v>8492</v>
       </c>
       <c r="F38" s="31">
-        <v>2540</v>
+        <v>2692</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11563,13 +11561,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="31">
-        <v>9037</v>
+        <v>9453</v>
       </c>
       <c r="E39" s="31">
-        <v>7226</v>
+        <v>7505</v>
       </c>
       <c r="F39" s="31">
-        <v>1811</v>
+        <v>1948</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11584,13 +11582,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="31">
-        <v>18457</v>
+        <v>19535</v>
       </c>
       <c r="E40" s="31">
-        <v>15057</v>
+        <v>15742</v>
       </c>
       <c r="F40" s="31">
-        <v>3400</v>
+        <v>3793</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11605,13 +11603,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="31">
-        <v>49907</v>
+        <v>52725</v>
       </c>
       <c r="E41" s="31">
-        <v>39373</v>
+        <v>41002</v>
       </c>
       <c r="F41" s="31">
-        <v>10534</v>
+        <v>11723</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11626,13 +11624,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="31">
-        <v>12428</v>
+        <v>13219</v>
       </c>
       <c r="E42" s="31">
-        <v>10289</v>
+        <v>10839</v>
       </c>
       <c r="F42" s="31">
-        <v>2139</v>
+        <v>2380</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11647,13 +11645,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="31">
-        <v>88285</v>
+        <v>94379</v>
       </c>
       <c r="E43" s="31">
-        <v>72785</v>
+        <v>76847</v>
       </c>
       <c r="F43" s="31">
-        <v>15500</v>
+        <v>17532</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11668,13 +11666,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="31">
-        <v>10507</v>
+        <v>10854</v>
       </c>
       <c r="E44" s="31">
-        <v>9574</v>
+        <v>9806</v>
       </c>
       <c r="F44" s="31">
-        <v>933</v>
+        <v>1048</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11689,13 +11687,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="31">
-        <v>7216</v>
+        <v>7640</v>
       </c>
       <c r="E45" s="31">
-        <v>6776</v>
+        <v>7137</v>
       </c>
       <c r="F45" s="31">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11709,13 +11707,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="31">
-        <v>13542</v>
+        <v>14493</v>
       </c>
       <c r="E46" s="31">
-        <v>12541</v>
+        <v>13212</v>
       </c>
       <c r="F46" s="31">
-        <v>1001</v>
+        <v>1281</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11730,13 +11728,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="31">
-        <v>82900</v>
+        <v>88000</v>
       </c>
       <c r="E47" s="31">
-        <v>76834</v>
+        <v>80410</v>
       </c>
       <c r="F47" s="31">
-        <v>6066</v>
+        <v>7590</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11751,13 +11749,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="31">
-        <v>16060</v>
+        <v>16807</v>
       </c>
       <c r="E48" s="31">
-        <v>14387</v>
+        <v>14960</v>
       </c>
       <c r="F48" s="31">
-        <v>1673</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11771,13 +11769,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="31">
-        <v>109620</v>
+        <v>118650</v>
       </c>
       <c r="E49" s="31">
-        <v>100574</v>
+        <v>107501</v>
       </c>
       <c r="F49" s="31">
-        <v>9046</v>
+        <v>11149</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11792,13 +11790,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="31">
-        <v>2190</v>
+        <v>2261</v>
       </c>
       <c r="E50" s="31">
-        <v>2035</v>
+        <v>2082</v>
       </c>
       <c r="F50" s="31">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11813,13 +11811,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="31">
-        <v>1266</v>
+        <v>1340</v>
       </c>
       <c r="E51" s="31">
-        <v>1230</v>
+        <v>1288</v>
       </c>
       <c r="F51" s="31">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11833,13 +11831,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="31">
-        <v>2467</v>
+        <v>2643</v>
       </c>
       <c r="E52" s="31">
-        <v>2346</v>
+        <v>2474</v>
       </c>
       <c r="F52" s="31">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11854,13 +11852,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="31">
-        <v>23122</v>
+        <v>24382</v>
       </c>
       <c r="E53" s="31">
-        <v>22040</v>
+        <v>22863</v>
       </c>
       <c r="F53" s="31">
-        <v>1082</v>
+        <v>1519</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11875,13 +11873,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="31">
-        <v>9822</v>
+        <v>10280</v>
       </c>
       <c r="E54" s="31">
-        <v>8472</v>
+        <v>8858</v>
       </c>
       <c r="F54" s="31">
-        <v>1350</v>
+        <v>1422</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11896,13 +11894,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="31">
-        <v>31670</v>
+        <v>34007</v>
       </c>
       <c r="E55" s="31">
-        <v>29215</v>
+        <v>30922</v>
       </c>
       <c r="F55" s="31">
-        <v>2455</v>
+        <v>3085</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11938,10 +11936,10 @@
         <v>299</v>
       </c>
       <c r="D57" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="31">
         <v>0</v>
@@ -11979,13 +11977,13 @@
         <v>301</v>
       </c>
       <c r="D59" s="31">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E59" s="31">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F59" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12000,10 +11998,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" s="31">
         <v>2</v>
@@ -12021,13 +12019,13 @@
         <v>286</v>
       </c>
       <c r="D61" s="31">
+        <v>513</v>
+      </c>
+      <c r="E61" s="31">
         <v>484</v>
       </c>
-      <c r="E61" s="31">
-        <v>456</v>
-      </c>
       <c r="F61" s="31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12042,13 +12040,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="31">
-        <v>715</v>
+        <v>761</v>
       </c>
       <c r="E62" s="31">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F62" s="31">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12063,13 +12061,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="31">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="E63" s="31">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F63" s="31">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12083,13 +12081,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="31">
-        <v>1048</v>
+        <v>1096</v>
       </c>
       <c r="E64" s="31">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="F64" s="31">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12104,13 +12102,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="31">
-        <v>2191</v>
+        <v>2309</v>
       </c>
       <c r="E65" s="31">
-        <v>1848</v>
+        <v>1868</v>
       </c>
       <c r="F65" s="31">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12125,13 +12123,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="31">
-        <v>1683</v>
+        <v>1787</v>
       </c>
       <c r="E66" s="31">
-        <v>1348</v>
+        <v>1367</v>
       </c>
       <c r="F66" s="31">
-        <v>335</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12145,13 +12143,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="31">
-        <v>3126</v>
+        <v>3184</v>
       </c>
       <c r="E67" s="31">
-        <v>2872</v>
+        <v>2891</v>
       </c>
       <c r="F67" s="31">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12166,13 +12164,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="31">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="E68" s="31">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F68" s="31">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12187,13 +12185,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="31">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E69" s="31">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F69" s="31">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12207,13 +12205,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="31">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E70" s="31">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F70" s="31">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12228,13 +12226,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="31">
-        <v>1822</v>
+        <v>1887</v>
       </c>
       <c r="E71" s="31">
-        <v>1628</v>
+        <v>1647</v>
       </c>
       <c r="F71" s="31">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12249,13 +12247,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="31">
-        <v>961</v>
+        <v>1010</v>
       </c>
       <c r="E72" s="31">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="F72" s="31">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12269,13 +12267,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="31">
-        <v>3231</v>
+        <v>3271</v>
       </c>
       <c r="E73" s="31">
-        <v>3104</v>
+        <v>3120</v>
       </c>
       <c r="F73" s="31">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12290,13 +12288,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="31">
-        <v>1356</v>
+        <v>1401</v>
       </c>
       <c r="E74" s="31">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="F74" s="31">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12311,13 +12309,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="31">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="E75" s="31">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="F75" s="31">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12332,13 +12330,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="31">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="E76" s="31">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="F76" s="31">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12353,13 +12351,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="31">
-        <v>8634</v>
+        <v>8916</v>
       </c>
       <c r="E77" s="31">
-        <v>8340</v>
+        <v>8478</v>
       </c>
       <c r="F77" s="31">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12374,13 +12372,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="31">
-        <v>3454</v>
+        <v>3565</v>
       </c>
       <c r="E78" s="31">
-        <v>3342</v>
+        <v>3395</v>
       </c>
       <c r="F78" s="31">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12395,13 +12393,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="31">
-        <v>7330</v>
+        <v>7399</v>
       </c>
       <c r="E79" s="31">
-        <v>7252</v>
+        <v>7286</v>
       </c>
       <c r="F79" s="31">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12415,13 +12413,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="31">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E80" s="31">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F80" s="31">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12435,10 +12433,10 @@
         <v>299</v>
       </c>
       <c r="D81" s="31">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E81" s="31">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F81" s="31">
         <v>1</v>
@@ -12455,13 +12453,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="31">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E82" s="31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F82" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12475,13 +12473,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="31">
-        <v>1530</v>
+        <v>1584</v>
       </c>
       <c r="E83" s="31">
-        <v>1497</v>
+        <v>1524</v>
       </c>
       <c r="F83" s="31">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12495,13 +12493,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="31">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E84" s="31">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F84" s="31">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12515,13 +12513,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="31">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="E85" s="31">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="F85" s="31">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12615,10 +12613,10 @@
         <v>286</v>
       </c>
       <c r="D90" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="31">
         <v>0</v>
@@ -12635,13 +12633,13 @@
         <v>287</v>
       </c>
       <c r="D91" s="31">
-        <v>2056962</v>
+        <v>2170149</v>
       </c>
       <c r="E91" s="31">
-        <v>1687025</v>
+        <v>1759812</v>
       </c>
       <c r="F91" s="31">
-        <v>369937</v>
+        <v>410337</v>
       </c>
     </row>
   </sheetData>
@@ -12651,7 +12649,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12715,7 +12713,7 @@
         <v>44182</v>
       </c>
       <c r="C5" s="30">
-        <v>16055</v>
+        <v>16056</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12737,7 +12735,7 @@
         <v>44184</v>
       </c>
       <c r="C7" s="30">
-        <v>12370</v>
+        <v>12371</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12748,7 +12746,7 @@
         <v>44185</v>
       </c>
       <c r="C8" s="30">
-        <v>6736</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12759,7 +12757,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="30">
-        <v>18403</v>
+        <v>18404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12770,7 +12768,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="30">
-        <v>17096</v>
+        <v>17099</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12781,7 +12779,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="30">
-        <v>24558</v>
+        <v>24564</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12792,7 +12790,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="30">
-        <v>10241</v>
+        <v>10243</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12814,7 +12812,7 @@
         <v>44191</v>
       </c>
       <c r="C14" s="30">
-        <v>6654</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12823,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="30">
-        <v>5296</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12836,7 +12834,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="30">
-        <v>25240</v>
+        <v>25360</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -12847,7 +12845,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="30">
-        <v>31832</v>
+        <v>31971</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -12858,7 +12856,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="30">
-        <v>35289</v>
+        <v>36055</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -12869,7 +12867,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="30">
-        <v>21516</v>
+        <v>21551</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -12880,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="30">
-        <v>2306</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -12891,7 +12889,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="30">
-        <v>9758</v>
+        <v>9834</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12902,7 +12900,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="30">
-        <v>6128</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -12913,7 +12911,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="30">
-        <v>23689</v>
+        <v>23807</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -12924,7 +12922,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="30">
-        <v>27733</v>
+        <v>27771</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -12935,7 +12933,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="30">
-        <v>35587</v>
+        <v>35773</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -12946,7 +12944,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="30">
-        <v>40474</v>
+        <v>40512</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12957,7 +12955,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="30">
-        <v>43405</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -12968,7 +12966,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="30">
-        <v>18462</v>
+        <v>18471</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12990,7 +12988,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="30">
-        <v>28073</v>
+        <v>28185</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -13001,7 +12999,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="30">
-        <v>28601</v>
+        <v>28832</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13012,7 +13010,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="30">
-        <v>26659</v>
+        <v>27194</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -13023,7 +13021,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="30">
-        <v>20689</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -13034,7 +13032,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="30">
-        <v>21442</v>
+        <v>21695</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -13045,7 +13043,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="30">
-        <v>11301</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -13056,7 +13054,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="30">
-        <v>2643</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -13067,7 +13065,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="30">
-        <v>11780</v>
+        <v>11786</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13078,7 +13076,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="30">
-        <v>20680</v>
+        <v>20919</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -13089,7 +13087,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="30">
-        <v>26515</v>
+        <v>26990</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -13100,7 +13098,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="30">
-        <v>24118</v>
+        <v>24432</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13111,7 +13109,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="30">
-        <v>29736</v>
+        <v>29868</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -13122,7 +13120,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="30">
-        <v>15911</v>
+        <v>16178</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -13133,7 +13131,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="30">
-        <v>5831</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -13144,7 +13142,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="30">
-        <v>26797</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -13155,7 +13153,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="30">
-        <v>21216</v>
+        <v>30561</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -13166,7 +13164,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="30">
-        <v>12278</v>
+        <v>19082</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -13177,7 +13175,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="30">
-        <v>1</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -13221,7 +13219,7 @@
         <v>44182</v>
       </c>
       <c r="C51" s="30">
-        <v>6671</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -13232,7 +13230,7 @@
         <v>44183</v>
       </c>
       <c r="C52" s="30">
-        <v>10791</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -13243,7 +13241,7 @@
         <v>44184</v>
       </c>
       <c r="C53" s="30">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -13265,7 +13263,7 @@
         <v>44186</v>
       </c>
       <c r="C55" s="30">
-        <v>7825</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -13276,7 +13274,7 @@
         <v>44187</v>
       </c>
       <c r="C56" s="30">
-        <v>7333</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -13287,7 +13285,7 @@
         <v>44188</v>
       </c>
       <c r="C57" s="30">
-        <v>10713</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -13320,7 +13318,7 @@
         <v>44191</v>
       </c>
       <c r="C60" s="30">
-        <v>3162</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -13331,7 +13329,7 @@
         <v>44192</v>
       </c>
       <c r="C61" s="30">
-        <v>2231</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -13342,7 +13340,7 @@
         <v>44193</v>
       </c>
       <c r="C62" s="30">
-        <v>12722</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -13353,7 +13351,7 @@
         <v>44194</v>
       </c>
       <c r="C63" s="30">
-        <v>16774</v>
+        <v>16843</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -13364,7 +13362,7 @@
         <v>44195</v>
       </c>
       <c r="C64" s="30">
-        <v>19645</v>
+        <v>19919</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -13375,7 +13373,7 @@
         <v>44196</v>
       </c>
       <c r="C65" s="30">
-        <v>12513</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -13386,7 +13384,7 @@
         <v>44197</v>
       </c>
       <c r="C66" s="30">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -13397,7 +13395,7 @@
         <v>44198</v>
       </c>
       <c r="C67" s="30">
-        <v>5596</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -13408,7 +13406,7 @@
         <v>44199</v>
       </c>
       <c r="C68" s="30">
-        <v>3248</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -13419,7 +13417,7 @@
         <v>44200</v>
       </c>
       <c r="C69" s="30">
-        <v>14653</v>
+        <v>14710</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -13430,7 +13428,7 @@
         <v>44201</v>
       </c>
       <c r="C70" s="30">
-        <v>16380</v>
+        <v>16422</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -13441,7 +13439,7 @@
         <v>44202</v>
       </c>
       <c r="C71" s="30">
-        <v>19791</v>
+        <v>19857</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -13452,7 +13450,7 @@
         <v>44203</v>
       </c>
       <c r="C72" s="30">
-        <v>22645</v>
+        <v>22669</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -13463,7 +13461,7 @@
         <v>44204</v>
       </c>
       <c r="C73" s="30">
-        <v>24175</v>
+        <v>24286</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -13474,7 +13472,7 @@
         <v>44205</v>
       </c>
       <c r="C74" s="30">
-        <v>10578</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -13485,7 +13483,7 @@
         <v>44206</v>
       </c>
       <c r="C75" s="30">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -13496,7 +13494,7 @@
         <v>44207</v>
       </c>
       <c r="C76" s="30">
-        <v>17795</v>
+        <v>17861</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -13507,7 +13505,7 @@
         <v>44208</v>
       </c>
       <c r="C77" s="30">
-        <v>19449</v>
+        <v>19550</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -13518,7 +13516,7 @@
         <v>44209</v>
       </c>
       <c r="C78" s="30">
-        <v>19115</v>
+        <v>19542</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -13529,7 +13527,7 @@
         <v>44210</v>
       </c>
       <c r="C79" s="30">
-        <v>16258</v>
+        <v>16528</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -13540,7 +13538,7 @@
         <v>44211</v>
       </c>
       <c r="C80" s="30">
-        <v>15735</v>
+        <v>15882</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -13551,7 +13549,7 @@
         <v>44212</v>
       </c>
       <c r="C81" s="30">
-        <v>9475</v>
+        <v>9541</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -13562,7 +13560,7 @@
         <v>44213</v>
       </c>
       <c r="C82" s="30">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -13573,7 +13571,7 @@
         <v>44214</v>
       </c>
       <c r="C83" s="30">
-        <v>8406</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -13584,7 +13582,7 @@
         <v>44215</v>
       </c>
       <c r="C84" s="30">
-        <v>15981</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -13595,7 +13593,7 @@
         <v>44216</v>
       </c>
       <c r="C85" s="30">
-        <v>19948</v>
+        <v>20364</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -13606,7 +13604,7 @@
         <v>44217</v>
       </c>
       <c r="C86" s="30">
-        <v>19389</v>
+        <v>19618</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -13617,7 +13615,7 @@
         <v>44218</v>
       </c>
       <c r="C87" s="30">
-        <v>21000</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -13628,7 +13626,7 @@
         <v>44219</v>
       </c>
       <c r="C88" s="30">
-        <v>11319</v>
+        <v>11536</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -13639,7 +13637,7 @@
         <v>44220</v>
       </c>
       <c r="C89" s="30">
-        <v>4168</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -13650,7 +13648,7 @@
         <v>44221</v>
       </c>
       <c r="C90" s="30">
-        <v>18324</v>
+        <v>20474</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -13661,7 +13659,7 @@
         <v>44222</v>
       </c>
       <c r="C91" s="30">
-        <v>14923</v>
+        <v>21598</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -13672,18 +13670,18 @@
         <v>44223</v>
       </c>
       <c r="C92" s="30">
-        <v>10096</v>
+        <v>15226</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B93" s="36">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="C93" s="30">
-        <v>24</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -13691,10 +13689,10 @@
         <v>284</v>
       </c>
       <c r="B94" s="36">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C94" s="30">
-        <v>308</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -13702,10 +13700,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="36">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C95" s="30">
-        <v>956</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -13713,10 +13711,10 @@
         <v>284</v>
       </c>
       <c r="B96" s="36">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C96" s="30">
-        <v>1437</v>
+        <v>956</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -13724,10 +13722,10 @@
         <v>284</v>
       </c>
       <c r="B97" s="36">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C97" s="30">
-        <v>2015</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -13735,10 +13733,10 @@
         <v>284</v>
       </c>
       <c r="B98" s="36">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C98" s="30">
-        <v>1007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -13746,10 +13744,10 @@
         <v>284</v>
       </c>
       <c r="B99" s="36">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C99" s="30">
-        <v>495</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -13757,10 +13755,10 @@
         <v>284</v>
       </c>
       <c r="B100" s="36">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C100" s="30">
-        <v>1480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -13768,10 +13766,10 @@
         <v>284</v>
       </c>
       <c r="B101" s="36">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C101" s="30">
-        <v>2061</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -13779,10 +13777,10 @@
         <v>284</v>
       </c>
       <c r="B102" s="36">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C102" s="30">
-        <v>2874</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -13790,10 +13788,10 @@
         <v>284</v>
       </c>
       <c r="B103" s="36">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C103" s="30">
-        <v>1877</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -13801,10 +13799,10 @@
         <v>284</v>
       </c>
       <c r="B104" s="36">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C104" s="30">
-        <v>324</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -13812,10 +13810,10 @@
         <v>284</v>
       </c>
       <c r="B105" s="36">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C105" s="30">
-        <v>1706</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -13823,10 +13821,10 @@
         <v>284</v>
       </c>
       <c r="B106" s="36">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C106" s="30">
-        <v>1118</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -13834,10 +13832,10 @@
         <v>284</v>
       </c>
       <c r="B107" s="36">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C107" s="30">
-        <v>6498</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -13845,10 +13843,10 @@
         <v>284</v>
       </c>
       <c r="B108" s="36">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C108" s="30">
-        <v>10559</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -13856,10 +13854,10 @@
         <v>284</v>
       </c>
       <c r="B109" s="36">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C109" s="30">
-        <v>16347</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -13867,10 +13865,10 @@
         <v>284</v>
       </c>
       <c r="B110" s="36">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C110" s="30">
-        <v>10630</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -13878,10 +13876,10 @@
         <v>284</v>
       </c>
       <c r="B111" s="36">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C111" s="30">
-        <v>1279</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -13889,10 +13887,10 @@
         <v>284</v>
       </c>
       <c r="B112" s="36">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C112" s="30">
-        <v>6037</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -13900,10 +13898,10 @@
         <v>284</v>
       </c>
       <c r="B113" s="36">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C113" s="30">
-        <v>3431</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -13911,10 +13909,10 @@
         <v>284</v>
       </c>
       <c r="B114" s="36">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C114" s="30">
-        <v>15961</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -13922,10 +13920,10 @@
         <v>284</v>
       </c>
       <c r="B115" s="36">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C115" s="30">
-        <v>18085</v>
+        <v>15992</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -13933,10 +13931,10 @@
         <v>284</v>
       </c>
       <c r="B116" s="36">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C116" s="30">
-        <v>20004</v>
+        <v>18125</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -13944,10 +13942,10 @@
         <v>284</v>
       </c>
       <c r="B117" s="36">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C117" s="30">
-        <v>24067</v>
+        <v>20037</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -13955,10 +13953,10 @@
         <v>284</v>
       </c>
       <c r="B118" s="36">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C118" s="30">
-        <v>24196</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -13966,10 +13964,10 @@
         <v>284</v>
       </c>
       <c r="B119" s="36">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C119" s="30">
-        <v>13912</v>
+        <v>24371</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -13977,10 +13975,10 @@
         <v>284</v>
       </c>
       <c r="B120" s="36">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C120" s="30">
-        <v>4373</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -13988,10 +13986,10 @@
         <v>284</v>
       </c>
       <c r="B121" s="36">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C121" s="30">
-        <v>23434</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -13999,10 +13997,10 @@
         <v>284</v>
       </c>
       <c r="B122" s="36">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C122" s="30">
-        <v>28002</v>
+        <v>23482</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -14010,10 +14008,10 @@
         <v>284</v>
       </c>
       <c r="B123" s="36">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C123" s="30">
-        <v>28406</v>
+        <v>28158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -14021,10 +14019,10 @@
         <v>284</v>
       </c>
       <c r="B124" s="36">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C124" s="30">
-        <v>31947</v>
+        <v>29084</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -14032,10 +14030,10 @@
         <v>284</v>
       </c>
       <c r="B125" s="36">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C125" s="30">
-        <v>27794</v>
+        <v>32520</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -14043,10 +14041,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="36">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C126" s="30">
-        <v>22592</v>
+        <v>28146</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -14054,10 +14052,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="36">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C127" s="30">
-        <v>6664</v>
+        <v>23177</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -14065,10 +14063,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="36">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C128" s="30">
-        <v>11806</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -14076,10 +14074,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="36">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C129" s="30">
-        <v>20539</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -14087,10 +14085,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="36">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C130" s="30">
-        <v>26740</v>
+        <v>20845</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -14098,10 +14096,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="36">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C131" s="30">
-        <v>29593</v>
+        <v>27227</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -14109,10 +14107,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="36">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C132" s="30">
-        <v>26078</v>
+        <v>29858</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -14120,10 +14118,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="36">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C133" s="30">
-        <v>19253</v>
+        <v>26527</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -14131,10 +14129,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="36">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C134" s="30">
-        <v>6930</v>
+        <v>19555</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -14142,10 +14140,10 @@
         <v>284</v>
       </c>
       <c r="B135" s="36">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C135" s="30">
-        <v>19196</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -14153,10 +14151,10 @@
         <v>284</v>
       </c>
       <c r="B136" s="36">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C136" s="30">
-        <v>16766</v>
+        <v>21897</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -14164,32 +14162,32 @@
         <v>284</v>
       </c>
       <c r="B137" s="36">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C137" s="30">
-        <v>14323</v>
+        <v>24158</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C138" s="23">
-        <v>1</v>
+        <v>44223</v>
+      </c>
+      <c r="C138" s="30">
+        <v>19970</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C139" s="23">
-        <v>5</v>
+        <v>44224</v>
+      </c>
+      <c r="C139" s="30">
+        <v>15396</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -14197,10 +14195,10 @@
         <v>285</v>
       </c>
       <c r="B140" s="36">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C140" s="23">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -14208,10 +14206,10 @@
         <v>285</v>
       </c>
       <c r="B141" s="36">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C141" s="23">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -14219,10 +14217,10 @@
         <v>285</v>
       </c>
       <c r="B142" s="36">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C142" s="23">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -14230,10 +14228,10 @@
         <v>285</v>
       </c>
       <c r="B143" s="36">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C143" s="23">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -14241,10 +14239,10 @@
         <v>285</v>
       </c>
       <c r="B144" s="36">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C144" s="30">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -14252,10 +14250,10 @@
         <v>285</v>
       </c>
       <c r="B145" s="36">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C145" s="30">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -14263,10 +14261,10 @@
         <v>285</v>
       </c>
       <c r="B146" s="36">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C146" s="30">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -14274,10 +14272,10 @@
         <v>285</v>
       </c>
       <c r="B147" s="36">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C147" s="30">
-        <v>576</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -14285,10 +14283,10 @@
         <v>285</v>
       </c>
       <c r="B148" s="36">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C148" s="30">
-        <v>399</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -14296,10 +14294,10 @@
         <v>285</v>
       </c>
       <c r="B149" s="36">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C149" s="30">
-        <v>57</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -14307,10 +14305,10 @@
         <v>285</v>
       </c>
       <c r="B150" s="36">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C150" s="30">
-        <v>506</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -14318,10 +14316,10 @@
         <v>285</v>
       </c>
       <c r="B151" s="36">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C151" s="30">
-        <v>367</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -14329,10 +14327,10 @@
         <v>285</v>
       </c>
       <c r="B152" s="36">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C152" s="30">
-        <v>2627</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -14340,10 +14338,10 @@
         <v>285</v>
       </c>
       <c r="B153" s="36">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C153" s="30">
-        <v>5442</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -14351,10 +14349,10 @@
         <v>285</v>
       </c>
       <c r="B154" s="36">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C154" s="30">
-        <v>6990</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -14362,10 +14360,10 @@
         <v>285</v>
       </c>
       <c r="B155" s="36">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C155" s="30">
-        <v>3164</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -14373,10 +14371,10 @@
         <v>285</v>
       </c>
       <c r="B156" s="36">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C156" s="30">
-        <v>389</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -14384,10 +14382,10 @@
         <v>285</v>
       </c>
       <c r="B157" s="36">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C157" s="30">
-        <v>2013</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -14395,10 +14393,10 @@
         <v>285</v>
       </c>
       <c r="B158" s="36">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C158" s="30">
-        <v>1218</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -14406,10 +14404,10 @@
         <v>285</v>
       </c>
       <c r="B159" s="36">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C159" s="30">
-        <v>6531</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -14417,10 +14415,10 @@
         <v>285</v>
       </c>
       <c r="B160" s="36">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C160" s="30">
-        <v>5698</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -14428,10 +14426,10 @@
         <v>285</v>
       </c>
       <c r="B161" s="36">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C161" s="30">
-        <v>7410</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -14439,10 +14437,10 @@
         <v>285</v>
       </c>
       <c r="B162" s="36">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C162" s="30">
-        <v>9305</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -14450,10 +14448,10 @@
         <v>285</v>
       </c>
       <c r="B163" s="36">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C163" s="30">
-        <v>8499</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -14461,10 +14459,10 @@
         <v>285</v>
       </c>
       <c r="B164" s="36">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C164" s="30">
-        <v>4718</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -14472,10 +14470,10 @@
         <v>285</v>
       </c>
       <c r="B165" s="36">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C165" s="30">
-        <v>1380</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -14483,10 +14481,10 @@
         <v>285</v>
       </c>
       <c r="B166" s="36">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C166" s="30">
-        <v>8349</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -14494,10 +14492,10 @@
         <v>285</v>
       </c>
       <c r="B167" s="36">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C167" s="30">
-        <v>8969</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -14505,10 +14503,10 @@
         <v>285</v>
       </c>
       <c r="B168" s="36">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C168" s="30">
-        <v>11139</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -14516,10 +14514,10 @@
         <v>285</v>
       </c>
       <c r="B169" s="36">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C169" s="30">
-        <v>11242</v>
+        <v>8982</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -14527,10 +14525,10 @@
         <v>285</v>
       </c>
       <c r="B170" s="36">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C170" s="30">
-        <v>8347</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -14538,10 +14536,10 @@
         <v>285</v>
       </c>
       <c r="B171" s="36">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C171" s="30">
-        <v>4513</v>
+        <v>11386</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -14549,10 +14547,10 @@
         <v>285</v>
       </c>
       <c r="B172" s="36">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C172" s="30">
-        <v>1660</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -14560,10 +14558,10 @@
         <v>285</v>
       </c>
       <c r="B173" s="36">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C173" s="30">
-        <v>4963</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -14571,10 +14569,10 @@
         <v>285</v>
       </c>
       <c r="B174" s="36">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C174" s="30">
-        <v>7792</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -14582,10 +14580,10 @@
         <v>285</v>
       </c>
       <c r="B175" s="36">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C175" s="30">
-        <v>9188</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -14593,10 +14591,10 @@
         <v>285</v>
       </c>
       <c r="B176" s="36">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C176" s="30">
-        <v>8811</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -14604,10 +14602,10 @@
         <v>285</v>
       </c>
       <c r="B177" s="36">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C177" s="30">
-        <v>7311</v>
+        <v>9521</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -14615,10 +14613,10 @@
         <v>285</v>
       </c>
       <c r="B178" s="36">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C178" s="30">
-        <v>5247</v>
+        <v>8902</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -14626,10 +14624,10 @@
         <v>285</v>
       </c>
       <c r="B179" s="36">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C179" s="30">
-        <v>1544</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -14637,10 +14635,10 @@
         <v>285</v>
       </c>
       <c r="B180" s="36">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C180" s="30">
-        <v>6912</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -14648,10 +14646,10 @@
         <v>285</v>
       </c>
       <c r="B181" s="36">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C181" s="30">
-        <v>4671</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -14659,43 +14657,43 @@
         <v>285</v>
       </c>
       <c r="B182" s="36">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C182" s="30">
-        <v>3843</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B183" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C183" s="23">
-        <v>2</v>
+        <v>44222</v>
+      </c>
+      <c r="C183" s="30">
+        <v>7910</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B184" s="36">
-        <v>44181</v>
-      </c>
-      <c r="C184" s="23">
-        <v>5</v>
+        <v>44223</v>
+      </c>
+      <c r="C184" s="30">
+        <v>5660</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B185" s="36">
-        <v>44182</v>
-      </c>
-      <c r="C185" s="23">
-        <v>13</v>
+        <v>44224</v>
+      </c>
+      <c r="C185" s="30">
+        <v>3693</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -14703,10 +14701,10 @@
         <v>286</v>
       </c>
       <c r="B186" s="36">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C186" s="23">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -14714,10 +14712,10 @@
         <v>286</v>
       </c>
       <c r="B187" s="36">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C187" s="23">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -14725,10 +14723,10 @@
         <v>286</v>
       </c>
       <c r="B188" s="36">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C188" s="23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -14736,10 +14734,10 @@
         <v>286</v>
       </c>
       <c r="B189" s="36">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C189" s="23">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -14747,10 +14745,10 @@
         <v>286</v>
       </c>
       <c r="B190" s="36">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C190" s="23">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -14758,10 +14756,10 @@
         <v>286</v>
       </c>
       <c r="B191" s="36">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C191" s="23">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -14769,10 +14767,10 @@
         <v>286</v>
       </c>
       <c r="B192" s="36">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C192" s="23">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -14780,10 +14778,10 @@
         <v>286</v>
       </c>
       <c r="B193" s="36">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C193" s="23">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -14791,10 +14789,10 @@
         <v>286</v>
       </c>
       <c r="B194" s="36">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C194" s="23">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -14802,10 +14800,10 @@
         <v>286</v>
       </c>
       <c r="B195" s="36">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C195" s="23">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -14813,10 +14811,10 @@
         <v>286</v>
       </c>
       <c r="B196" s="36">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C196" s="23">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -14824,10 +14822,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="36">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C197" s="23">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -14835,10 +14833,10 @@
         <v>286</v>
       </c>
       <c r="B198" s="36">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C198" s="23">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -14846,10 +14844,10 @@
         <v>286</v>
       </c>
       <c r="B199" s="36">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C199" s="23">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -14857,10 +14855,10 @@
         <v>286</v>
       </c>
       <c r="B200" s="36">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C200" s="23">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -14868,10 +14866,10 @@
         <v>286</v>
       </c>
       <c r="B201" s="36">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C201" s="23">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -14879,10 +14877,10 @@
         <v>286</v>
       </c>
       <c r="B202" s="36">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C202" s="23">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -14890,10 +14888,10 @@
         <v>286</v>
       </c>
       <c r="B203" s="36">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C203" s="23">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -14901,10 +14899,10 @@
         <v>286</v>
       </c>
       <c r="B204" s="36">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C204" s="23">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -14912,10 +14910,10 @@
         <v>286</v>
       </c>
       <c r="B205" s="36">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C205" s="23">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -14923,10 +14921,10 @@
         <v>286</v>
       </c>
       <c r="B206" s="36">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C206" s="23">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -14934,10 +14932,10 @@
         <v>286</v>
       </c>
       <c r="B207" s="36">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C207" s="23">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -14945,10 +14943,10 @@
         <v>286</v>
       </c>
       <c r="B208" s="36">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C208" s="23">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -14956,10 +14954,10 @@
         <v>286</v>
       </c>
       <c r="B209" s="36">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C209" s="23">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -14967,10 +14965,10 @@
         <v>286</v>
       </c>
       <c r="B210" s="36">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C210" s="23">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -14978,10 +14976,10 @@
         <v>286</v>
       </c>
       <c r="B211" s="36">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C211" s="23">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -14989,10 +14987,10 @@
         <v>286</v>
       </c>
       <c r="B212" s="36">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C212" s="23">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -15000,10 +14998,10 @@
         <v>286</v>
       </c>
       <c r="B213" s="36">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C213" s="23">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -15011,10 +15009,10 @@
         <v>286</v>
       </c>
       <c r="B214" s="36">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C214" s="23">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -15022,10 +15020,10 @@
         <v>286</v>
       </c>
       <c r="B215" s="36">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C215" s="23">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -15033,10 +15031,10 @@
         <v>286</v>
       </c>
       <c r="B216" s="36">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C216" s="23">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -15044,10 +15042,10 @@
         <v>286</v>
       </c>
       <c r="B217" s="36">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C217" s="23">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -15055,10 +15053,10 @@
         <v>286</v>
       </c>
       <c r="B218" s="36">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C218" s="23">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -15066,10 +15064,10 @@
         <v>286</v>
       </c>
       <c r="B219" s="36">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C219" s="23">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -15077,10 +15075,10 @@
         <v>286</v>
       </c>
       <c r="B220" s="36">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C220" s="23">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -15088,10 +15086,10 @@
         <v>286</v>
       </c>
       <c r="B221" s="36">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C221" s="23">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -15099,10 +15097,10 @@
         <v>286</v>
       </c>
       <c r="B222" s="36">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C222" s="23">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -15110,10 +15108,10 @@
         <v>286</v>
       </c>
       <c r="B223" s="36">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C223" s="23">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -15121,10 +15119,10 @@
         <v>286</v>
       </c>
       <c r="B224" s="36">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C224" s="23">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -15132,10 +15130,10 @@
         <v>286</v>
       </c>
       <c r="B225" s="36">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C225" s="23">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -15143,10 +15141,54 @@
         <v>286</v>
       </c>
       <c r="B226" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C226" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B227" s="36">
+        <v>44221</v>
+      </c>
+      <c r="C227" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228" s="36">
+        <v>44222</v>
+      </c>
+      <c r="C228" s="23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" s="36">
         <v>44223</v>
       </c>
-      <c r="C226" s="23">
-        <v>53</v>
+      <c r="C229" s="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B230" s="36">
+        <v>44224</v>
+      </c>
+      <c r="C230" s="23">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
